--- a/resources/Experiments.xlsx
+++ b/resources/Experiments.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298C3E64-1511-9C45-A286-67DE0E96A58D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BAA6696-EE88-3441-975C-4881730453B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="22260" windowHeight="12640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Progress" sheetId="2" r:id="rId1"/>
@@ -237,6 +237,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -252,7 +253,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7853,16 +7853,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.19500000000000001</c:v>
+                  <c:v>0.13300000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.184</c:v>
+                  <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.17399999999999999</c:v>
+                  <c:v>0.127</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.16500000000000001</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9227,7 +9227,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.23300000000000001</c:v>
+                  <c:v>0.23200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.20499999999999999</c:v>
@@ -9281,10 +9281,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.25700000000000001</c:v>
+                  <c:v>0.23300000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.23699999999999999</c:v>
+                  <c:v>0.23100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.22</c:v>
@@ -10709,16 +10709,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.11799999999999999</c:v>
+                  <c:v>0.10100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.11799999999999999</c:v>
+                  <c:v>0.10100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.11799999999999999</c:v>
+                  <c:v>0.10100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.11799999999999999</c:v>
+                  <c:v>0.10100000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12851,13 +12851,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.58199999999999996</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.437</c:v>
+                  <c:v>0.28699999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.35099999999999998</c:v>
+                  <c:v>0.26800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.29399999999999998</c:v>
@@ -13565,7 +13565,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.56299999999999994</c:v>
+                  <c:v>0.55500000000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.42199999999999999</c:v>
@@ -15293,6 +15293,12 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.32100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32300000000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -15337,6 +15343,12 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.317</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.315</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -15381,6 +15393,12 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.312</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.307</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -15423,6 +15441,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.307</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -15467,6 +15488,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.30599999999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -16637,6 +16661,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.157</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.157</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.157</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.157</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -16681,6 +16717,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.153</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14299999999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -16725,6 +16773,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.14799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13100000000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -16767,6 +16827,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.14599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.121</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -16811,6 +16883,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.13900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.113</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -17897,6 +17981,12 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.26300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.26500000000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -17941,6 +18031,12 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.26400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.26600000000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -17985,6 +18081,12 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.26400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.26600000000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -18027,6 +18129,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.26300000000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -18071,6 +18176,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.26600000000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -18527,6 +18635,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.22900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.22900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22900000000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -18571,6 +18691,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.22900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.22900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22900000000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -18615,6 +18747,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.22800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.22900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22900000000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -18657,6 +18801,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.22900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.22900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22900000000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -18701,6 +18857,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.224</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.22800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22900000000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -19787,6 +19955,12 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.41099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.41399999999999998</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -19831,6 +20005,12 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.39800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.38900000000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -19875,6 +20055,12 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.38300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.36399999999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -19917,6 +20103,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.36899999999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -19961,6 +20150,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.36199999999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -20417,6 +20609,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.122</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.122</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.122</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.122</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -20461,6 +20665,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.11700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.112</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.106</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -20505,6 +20721,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.112</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.106</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.4E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -20547,6 +20775,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.1999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.5000000000000006E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -20591,6 +20831,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.104</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.4000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.8E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -45648,8 +45900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -45676,7 +45928,7 @@
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -45696,7 +45948,7 @@
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B4" s="10"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
@@ -45710,11 +45962,11 @@
         <v>21</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="10"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
@@ -45727,12 +45979,12 @@
       <c r="F5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>22</v>
+      <c r="G5" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="11" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -45752,7 +46004,7 @@
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="10"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="2" t="s">
         <v>4</v>
       </c>
@@ -45770,7 +46022,7 @@
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="10"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="2" t="s">
         <v>5</v>
       </c>
@@ -45788,7 +46040,7 @@
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -45808,7 +46060,7 @@
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B10" s="10"/>
+      <c r="B10" s="11"/>
       <c r="C10" s="2" t="s">
         <v>4</v>
       </c>
@@ -45826,7 +46078,7 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B11" s="10"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="2" t="s">
         <v>5</v>
       </c>
@@ -45871,27 +46123,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="H2" s="11" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="H2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="N2" s="11" t="s">
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="N2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
@@ -45941,27 +46193,27 @@
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="14"/>
-      <c r="H4" s="12" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="15"/>
+      <c r="H4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="14"/>
-      <c r="N4" s="12" t="s">
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="15"/>
+      <c r="N4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="15"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
@@ -46293,27 +46545,27 @@
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="14"/>
-      <c r="H12" s="12" t="s">
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="15"/>
+      <c r="H12" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="14"/>
-      <c r="N12" s="12" t="s">
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="15"/>
+      <c r="N12" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="15"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
@@ -46645,27 +46897,27 @@
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="14"/>
-      <c r="H20" s="12" t="s">
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="15"/>
+      <c r="H20" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="14"/>
-      <c r="N20" s="12" t="s">
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="15"/>
+      <c r="N20" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="15"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B21" s="5" t="s">
@@ -47033,27 +47285,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="H2" s="11" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="H2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="N2" s="11" t="s">
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="N2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
@@ -47103,27 +47355,27 @@
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="14"/>
-      <c r="H4" s="12" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="15"/>
+      <c r="H4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="14"/>
-      <c r="N4" s="12" t="s">
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="15"/>
+      <c r="N4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="15"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
@@ -47451,27 +47703,27 @@
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="14"/>
-      <c r="H12" s="12" t="s">
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="15"/>
+      <c r="H12" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="14"/>
-      <c r="N12" s="12" t="s">
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="15"/>
+      <c r="N12" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="15"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
@@ -47799,27 +48051,27 @@
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="14"/>
-      <c r="H20" s="12" t="s">
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="15"/>
+      <c r="H20" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="14"/>
-      <c r="N20" s="12" t="s">
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="15"/>
+      <c r="N20" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="15"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B21" s="5" t="s">
@@ -48148,18 +48400,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="N12:R12"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="N20:R20"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="H2:L2"/>
     <mergeCell ref="N2:R2"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="H4:L4"/>
     <mergeCell ref="N4:R4"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="N12:R12"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="N20:R20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -48169,8 +48421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="N35" sqref="N35"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -48183,27 +48435,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="H2" s="11" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="H2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="N2" s="11" t="s">
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="N2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
@@ -48253,27 +48505,27 @@
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="14"/>
-      <c r="H4" s="12" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="15"/>
+      <c r="H4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="14"/>
-      <c r="N4" s="12" t="s">
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="15"/>
+      <c r="N4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="15"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
@@ -48562,16 +48814,16 @@
         <v>24</v>
       </c>
       <c r="C11" s="7">
-        <v>0.11799999999999999</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="D11" s="7">
-        <v>0.11799999999999999</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="E11" s="7">
-        <v>0.11799999999999999</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="F11" s="7">
-        <v>0.11799999999999999</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>24</v>
@@ -48605,27 +48857,27 @@
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="14"/>
-      <c r="H12" s="12" t="s">
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="15"/>
+      <c r="H12" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="14"/>
-      <c r="N12" s="12" t="s">
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="15"/>
+      <c r="N12" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="15"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
@@ -48914,13 +49166,13 @@
         <v>24</v>
       </c>
       <c r="C19" s="7">
-        <v>0.58199999999999996</v>
+        <v>0.3</v>
       </c>
       <c r="D19" s="7">
-        <v>0.437</v>
+        <v>0.28699999999999998</v>
       </c>
       <c r="E19" s="7">
-        <v>0.35099999999999998</v>
+        <v>0.26800000000000002</v>
       </c>
       <c r="F19" s="7">
         <v>0.29399999999999998</v>
@@ -48929,7 +49181,7 @@
         <v>24</v>
       </c>
       <c r="I19" s="7">
-        <v>0.56299999999999994</v>
+        <v>0.55500000000000005</v>
       </c>
       <c r="J19" s="7">
         <v>0.42199999999999999</v>
@@ -48957,27 +49209,27 @@
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="14"/>
-      <c r="H20" s="12" t="s">
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="15"/>
+      <c r="H20" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="14"/>
-      <c r="N20" s="12" t="s">
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="15"/>
+      <c r="N20" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="15"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B21" s="5" t="s">
@@ -49234,7 +49486,7 @@
         <v>20</v>
       </c>
       <c r="I26" s="7">
-        <v>0.23300000000000001</v>
+        <v>0.23200000000000001</v>
       </c>
       <c r="J26" s="7">
         <v>0.20499999999999999</v>
@@ -49266,25 +49518,25 @@
         <v>24</v>
       </c>
       <c r="C27" s="7">
-        <v>0.19500000000000001</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="D27" s="7">
-        <v>0.184</v>
+        <v>0.13</v>
       </c>
       <c r="E27" s="7">
-        <v>0.17399999999999999</v>
+        <v>0.127</v>
       </c>
       <c r="F27" s="7">
-        <v>0.16500000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>24</v>
       </c>
       <c r="I27" s="7">
-        <v>0.25700000000000001</v>
+        <v>0.23300000000000001</v>
       </c>
       <c r="J27" s="7">
-        <v>0.23699999999999999</v>
+        <v>0.23100000000000001</v>
       </c>
       <c r="K27" s="7">
         <v>0.22</v>
@@ -49309,25 +49561,25 @@
       </c>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="15"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="N12:R12"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="N20:R20"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="H2:L2"/>
     <mergeCell ref="N2:R2"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="H4:L4"/>
     <mergeCell ref="N4:R4"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="N12:R12"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="N20:R20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -49337,8 +49589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:R27"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="T30" sqref="T30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -49351,27 +49603,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="H2" s="11" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="H2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="N2" s="11" t="s">
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="N2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
@@ -49421,27 +49673,27 @@
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="14"/>
-      <c r="H4" s="12" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="15"/>
+      <c r="H4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="14"/>
-      <c r="N4" s="12" t="s">
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="15"/>
+      <c r="N4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="15"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
@@ -49454,17 +49706,29 @@
       <c r="H5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
+      <c r="I5" s="6">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0.26500000000000001</v>
+      </c>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="N5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
+      <c r="O5" s="6">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="P5" s="6">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="R5" s="6">
+        <v>0.22900000000000001</v>
+      </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
@@ -49477,17 +49741,29 @@
       <c r="H6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
+      <c r="I6" s="6">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0.26600000000000001</v>
+      </c>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
       <c r="N6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
+      <c r="O6" s="6">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="P6" s="6">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="R6" s="6">
+        <v>0.22900000000000001</v>
+      </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
@@ -49500,17 +49776,29 @@
       <c r="H7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
+      <c r="I7" s="6">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0.26600000000000001</v>
+      </c>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="N7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
+      <c r="O7" s="6">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="P7" s="6">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="R7" s="6">
+        <v>0.22900000000000001</v>
+      </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
@@ -49523,17 +49811,27 @@
       <c r="H8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="6"/>
+      <c r="I8" s="6">
+        <v>0.26300000000000001</v>
+      </c>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="N8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
+      <c r="O8" s="6">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="P8" s="6">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="R8" s="6">
+        <v>0.22900000000000001</v>
+      </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
@@ -49546,17 +49844,27 @@
       <c r="H9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="6"/>
+      <c r="I9" s="6">
+        <v>0.26600000000000001</v>
+      </c>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="N9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
+      <c r="O9" s="6">
+        <v>0.224</v>
+      </c>
+      <c r="P9" s="6">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="R9" s="6">
+        <v>0.22900000000000001</v>
+      </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
@@ -49605,27 +49913,27 @@
       <c r="R11" s="6"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="14"/>
-      <c r="H12" s="12" t="s">
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="15"/>
+      <c r="H12" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="14"/>
-      <c r="N12" s="12" t="s">
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="15"/>
+      <c r="N12" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="15"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
@@ -49638,17 +49946,29 @@
       <c r="H13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
+      <c r="I13" s="6">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="J13" s="6">
+        <v>0.41399999999999998</v>
+      </c>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
       <c r="N13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
+      <c r="O13" s="6">
+        <v>0.122</v>
+      </c>
+      <c r="P13" s="6">
+        <v>0.122</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>0.122</v>
+      </c>
+      <c r="R13" s="6">
+        <v>0.122</v>
+      </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
@@ -49661,17 +49981,29 @@
       <c r="H14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
+      <c r="I14" s="6">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="J14" s="6">
+        <v>0.38900000000000001</v>
+      </c>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="N14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
+      <c r="O14" s="6">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="P14" s="6">
+        <v>0.112</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>0.11</v>
+      </c>
+      <c r="R14" s="6">
+        <v>0.106</v>
+      </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B15" s="5" t="s">
@@ -49684,17 +50016,29 @@
       <c r="H15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
+      <c r="I15" s="6">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="J15" s="6">
+        <v>0.36399999999999999</v>
+      </c>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
       <c r="N15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
+      <c r="O15" s="6">
+        <v>0.112</v>
+      </c>
+      <c r="P15" s="6">
+        <v>0.106</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="R15" s="6">
+        <v>9.4E-2</v>
+      </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
@@ -49707,17 +50051,27 @@
       <c r="H16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="6"/>
+      <c r="I16" s="6">
+        <v>0.36899999999999999</v>
+      </c>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
       <c r="N16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
+      <c r="O16" s="6">
+        <v>0.11</v>
+      </c>
+      <c r="P16" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="R16" s="6">
+        <v>8.5000000000000006E-2</v>
+      </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
@@ -49730,17 +50084,27 @@
       <c r="H17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I17" s="6"/>
+      <c r="I17" s="6">
+        <v>0.36199999999999999</v>
+      </c>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
       <c r="N17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
+      <c r="O17" s="6">
+        <v>0.104</v>
+      </c>
+      <c r="P17" s="6">
+        <v>9.4E-2</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="R17" s="6">
+        <v>7.8E-2</v>
+      </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B18" s="5" t="s">
@@ -49789,27 +50153,27 @@
       <c r="R19" s="6"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="14"/>
-      <c r="H20" s="12" t="s">
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="15"/>
+      <c r="H20" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="14"/>
-      <c r="N20" s="12" t="s">
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="15"/>
+      <c r="N20" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="15"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B21" s="5" t="s">
@@ -49822,17 +50186,29 @@
       <c r="H21" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
+      <c r="I21" s="6">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="J21" s="6">
+        <v>0.32300000000000001</v>
+      </c>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
       <c r="N21" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
+      <c r="O21" s="6">
+        <v>0.157</v>
+      </c>
+      <c r="P21" s="6">
+        <v>0.157</v>
+      </c>
+      <c r="Q21" s="6">
+        <v>0.157</v>
+      </c>
+      <c r="R21" s="6">
+        <v>0.157</v>
+      </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B22" s="5" t="s">
@@ -49845,17 +50221,29 @@
       <c r="H22" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
+      <c r="I22" s="6">
+        <v>0.317</v>
+      </c>
+      <c r="J22" s="6">
+        <v>0.315</v>
+      </c>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
       <c r="N22" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
+      <c r="O22" s="6">
+        <v>0.153</v>
+      </c>
+      <c r="P22" s="6">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="Q22" s="6">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="R22" s="6">
+        <v>0.14299999999999999</v>
+      </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B23" s="5" t="s">
@@ -49868,17 +50256,29 @@
       <c r="H23" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
+      <c r="I23" s="6">
+        <v>0.312</v>
+      </c>
+      <c r="J23" s="6">
+        <v>0.307</v>
+      </c>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
       <c r="N23" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
+      <c r="O23" s="6">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="P23" s="6">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="Q23" s="6">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="R23" s="6">
+        <v>0.13100000000000001</v>
+      </c>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B24" s="5" t="s">
@@ -49891,17 +50291,27 @@
       <c r="H24" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I24" s="6"/>
+      <c r="I24" s="6">
+        <v>0.307</v>
+      </c>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
       <c r="N24" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
+      <c r="O24" s="6">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="P24" s="6">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="Q24" s="6">
+        <v>0.128</v>
+      </c>
+      <c r="R24" s="6">
+        <v>0.121</v>
+      </c>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B25" s="5" t="s">
@@ -49914,17 +50324,27 @@
       <c r="H25" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I25" s="6"/>
+      <c r="I25" s="6">
+        <v>0.30599999999999999</v>
+      </c>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
       <c r="N25" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
+      <c r="O25" s="6">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="P25" s="6">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="Q25" s="6">
+        <v>0.12</v>
+      </c>
+      <c r="R25" s="6">
+        <v>0.113</v>
+      </c>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B26" s="5" t="s">
@@ -49974,18 +50394,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="N12:R12"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="N20:R20"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="H2:L2"/>
     <mergeCell ref="N2:R2"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="H4:L4"/>
     <mergeCell ref="N4:R4"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="N12:R12"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="N20:R20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -50059,8 +50479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B2:B40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R39" sqref="R39"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="L58" sqref="L58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/resources/Experiments.xlsx
+++ b/resources/Experiments.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BAA6696-EE88-3441-975C-4881730453B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69EB5FED-D5D7-884F-BCA1-8D00C160194B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="23">
   <si>
     <t>ALPHA</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>SockDef</t>
-  </si>
-  <si>
-    <t>Partial</t>
   </si>
   <si>
     <t>FRAUDAR</t>
@@ -96,9 +93,6 @@
     <t>Finished, added to xlsx</t>
   </si>
   <si>
-    <t>TBD</t>
-  </si>
-  <si>
     <t>REV2</t>
   </si>
   <si>
@@ -126,7 +120,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -136,12 +130,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -210,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -218,16 +206,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2708,6 +2690,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.38100000000000001</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>0.32200000000000001</c:v>
                 </c:pt>
@@ -2761,6 +2746,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.36</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>0.28999999999999998</c:v>
                 </c:pt>
@@ -4844,6 +4832,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.64</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>0.63800000000000001</c:v>
                 </c:pt>
@@ -4897,6 +4888,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.63900000000000001</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>0.63500000000000001</c:v>
                 </c:pt>
@@ -6980,6 +6974,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.27100000000000002</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>0.215</c:v>
                 </c:pt>
@@ -7033,6 +7030,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>0.188</c:v>
                 </c:pt>
@@ -8567,10 +8567,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.41499999999999998</c:v>
+                  <c:v>0.33700000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.33700000000000002</c:v>
+                  <c:v>0.316</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.28399999999999997</c:v>
@@ -14662,6 +14662,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.5400000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5400000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5400000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5400000000000001E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -14706,6 +14718,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.5299999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5200000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.49E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -14750,6 +14774,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.5200000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.49E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4599999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.44E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -14792,6 +14828,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4599999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4299999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.39E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -14836,6 +14884,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.4700000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.44E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3399999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3000000000000002E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -14878,6 +14938,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.4000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.32E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2399999999999998E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -14920,6 +14992,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.5299999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5200000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.44E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -15299,6 +15383,12 @@
                 <c:pt idx="1">
                   <c:v>0.32300000000000001</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.32800000000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -15349,6 +15439,12 @@
                 <c:pt idx="1">
                   <c:v>0.315</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.313</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.309</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -15399,6 +15495,12 @@
                 <c:pt idx="1">
                   <c:v>0.307</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.30199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.29399999999999998</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -15443,6 +15545,15 @@
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.307</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.29099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.27900000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15491,6 +15602,15 @@
                 <c:pt idx="0">
                   <c:v>0.30599999999999999</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.29199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26900000000000002</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -15533,6 +15653,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.29599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.252</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23400000000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -15575,6 +15707,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.312</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.30499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.29199999999999998</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -16278,7 +16422,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.27100000000000002</c:v>
+                  <c:v>0.249</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.21199999999999999</c:v>
@@ -16937,6 +17081,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.13400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.107</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.7000000000000003E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -16979,6 +17135,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.152</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.115</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.104</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -17351,6 +17519,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -17395,6 +17575,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -17439,6 +17631,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -17481,6 +17685,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -17525,6 +17741,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -17567,6 +17795,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -17609,6 +17849,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -17987,6 +18239,12 @@
                 <c:pt idx="1">
                   <c:v>0.26500000000000001</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.27100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.27100000000000002</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -18037,6 +18295,12 @@
                 <c:pt idx="1">
                   <c:v>0.26600000000000001</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.27100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.27200000000000002</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -18087,6 +18351,12 @@
                 <c:pt idx="1">
                   <c:v>0.26600000000000001</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.27300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.27300000000000002</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -18131,6 +18401,15 @@
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.26300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.27400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.27300000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18179,6 +18458,15 @@
                 <c:pt idx="0">
                   <c:v>0.26600000000000001</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.27400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.27600000000000002</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -18221,6 +18509,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.26700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.26700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26700000000000002</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -18263,6 +18563,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.26700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.26700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26700000000000002</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -18911,6 +19223,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.20100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20100000000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -18953,6 +19277,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.46300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.46300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.46300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.46300000000000002</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -19325,6 +19661,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.19400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19400000000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -19369,6 +19717,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.186</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16700000000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -19413,6 +19773,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.17899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.157</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14699999999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -19455,6 +19827,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.17299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.157</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13200000000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -19499,6 +19883,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.16600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.129</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11700000000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -19541,6 +19937,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.151</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.126</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.108</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.106</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -19583,6 +19991,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.17899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.157</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.153</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -19961,6 +20381,12 @@
                 <c:pt idx="1">
                   <c:v>0.41399999999999998</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.41399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.41399999999999998</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -20011,6 +20437,12 @@
                 <c:pt idx="1">
                   <c:v>0.38900000000000001</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.372</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.36099999999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -20061,6 +20493,12 @@
                 <c:pt idx="1">
                   <c:v>0.36399999999999999</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.32200000000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -20105,6 +20543,15 @@
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.36899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.33900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.315</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.28899999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20153,6 +20600,15 @@
                 <c:pt idx="0">
                   <c:v>0.36199999999999999</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.31900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.29099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26700000000000002</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -20195,6 +20651,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.33600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.29599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.214</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -20237,6 +20705,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.38500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.36699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.32400000000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -20885,6 +21365,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.10199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.5000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.3999999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.5000000000000002E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -20927,6 +21419,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>9.9000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.4000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.2999999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.4000000000000001E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -22347,7 +22851,7 @@
                   <c:v>0.376</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.376</c:v>
+                  <c:v>0.36599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.376</c:v>
@@ -24486,10 +24990,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.46300000000000002</c:v>
+                  <c:v>0.30599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.30599999999999999</c:v>
+                  <c:v>0.27800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.22800000000000001</c:v>
@@ -25200,7 +25704,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.245</c:v>
+                  <c:v>0.23499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.16200000000000001</c:v>
@@ -45901,7 +46405,7 @@
   <dimension ref="B2:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -45928,171 +46432,171 @@
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B4" s="11"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>9</v>
+        <v>20</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="11"/>
+      <c r="B5" s="9"/>
       <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>9</v>
+        <v>20</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="11"/>
+      <c r="B7" s="9"/>
       <c r="C7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="11"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B10" s="11"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B11" s="11"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -46109,8 +46613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:R27"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26:R27"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5:L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -46123,1128 +46627,1128 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="H2" s="12" t="s">
+      <c r="B2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="H2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="N2" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="N2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="5">
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4">
         <v>100</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>200</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>300</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>400</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="5">
+      <c r="H3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="4">
         <v>100</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="4">
         <v>200</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="4">
         <v>300</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="4">
         <v>400</v>
       </c>
-      <c r="N3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="O3" s="5">
+      <c r="N3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="4">
         <v>100</v>
       </c>
-      <c r="P3" s="5">
+      <c r="P3" s="4">
         <v>200</v>
       </c>
-      <c r="Q3" s="5">
+      <c r="Q3" s="4">
         <v>300</v>
       </c>
-      <c r="R3" s="5">
+      <c r="R3" s="4">
         <v>400</v>
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B4" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="15"/>
-      <c r="H4" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="15"/>
-      <c r="N4" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="15"/>
+      <c r="B4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="13"/>
+      <c r="H4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="13"/>
+      <c r="N4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="13"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="8">
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="6">
         <v>0.36799999999999999</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="6">
         <v>0.376</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="6">
         <v>0.376</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="6">
         <v>0.376</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="4">
+      <c r="H5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="3">
         <v>0.86899999999999999</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="3">
         <v>0.86699999999999999</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="3">
         <v>0.86699999999999999</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="3">
         <v>0.86699999999999999</v>
       </c>
-      <c r="N5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="O5" s="4">
+      <c r="N5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O5" s="3">
         <v>0.34899999999999998</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="3">
         <v>0.36399999999999999</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q5" s="3">
         <v>0.36399999999999999</v>
       </c>
-      <c r="R5" s="4">
+      <c r="R5" s="3">
         <v>0.36399999999999999</v>
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="8">
+      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="6">
         <v>0.35899999999999999</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="6">
         <v>0.37</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="6">
         <v>0.376</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="6">
         <v>0.379</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="4">
+      <c r="H6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="3">
         <v>0.88100000000000001</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="3">
         <v>0.88900000000000001</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="3">
         <v>0.90600000000000003</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="3">
         <v>0.91</v>
       </c>
-      <c r="N6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="O6" s="4">
+      <c r="N6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" s="3">
         <v>0.34899999999999998</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P6" s="3">
         <v>0.36399999999999999</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="Q6" s="3">
         <v>0.36399999999999999</v>
       </c>
-      <c r="R6" s="4">
+      <c r="R6" s="3">
         <v>0.36399999999999999</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="8">
+      <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="6">
         <v>0.36799999999999999</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="6">
         <v>0.36399999999999999</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="6">
         <v>0.378</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="6">
         <v>0.36899999999999999</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="4">
+      <c r="H7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="3">
         <v>0.88400000000000001</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="3">
         <v>0.91</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="3">
         <v>0.92200000000000004</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="3">
         <v>0.92700000000000005</v>
       </c>
-      <c r="N7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="O7" s="4">
+      <c r="N7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O7" s="3">
         <v>0.33700000000000002</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7" s="3">
         <v>0.34899999999999998</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="Q7" s="3">
         <v>0.36399999999999999</v>
       </c>
-      <c r="R7" s="4">
+      <c r="R7" s="3">
         <v>0.36399999999999999</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="8">
+      <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="6">
         <v>0.37</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="6">
         <v>0.36299999999999999</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="6">
         <v>0.39600000000000002</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="6">
         <v>0.372</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="4">
+      <c r="H8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="3">
         <v>0.90400000000000003</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="3">
         <v>0.92100000000000004</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="3">
         <v>0.93100000000000005</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="3">
         <v>0.94</v>
       </c>
-      <c r="N8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="O8" s="4">
+      <c r="N8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O8" s="3">
         <v>0.34499999999999997</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8" s="3">
         <v>0.34100000000000003</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q8" s="3">
         <v>0.36399999999999999</v>
       </c>
-      <c r="R8" s="4">
+      <c r="R8" s="3">
         <v>0.36599999999999999</v>
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="8">
+      <c r="B9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="6">
         <v>0.36799999999999999</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="6">
         <v>0.371</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="6">
         <v>0.40500000000000003</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="6">
         <v>0.36299999999999999</v>
       </c>
-      <c r="H9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="4">
+      <c r="H9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="3">
         <v>0.91100000000000003</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="3">
         <v>0.93100000000000005</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="3">
         <v>0.94099999999999995</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="3">
         <v>0.95</v>
       </c>
-      <c r="N9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="O9" s="4">
+      <c r="N9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O9" s="3">
         <v>0.33400000000000002</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="3">
         <v>0.34100000000000003</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="Q9" s="3">
         <v>0.35499999999999998</v>
       </c>
-      <c r="R9" s="4">
+      <c r="R9" s="3">
         <v>0.37</v>
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="8">
+      <c r="B10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="6">
         <v>0.36599999999999999</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="6">
         <v>0.36599999999999999</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="6">
         <v>0.36599999999999999</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="6">
         <v>0.36599999999999999</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="4">
+      <c r="H10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="3">
         <v>0.86699999999999999</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="3">
         <v>0.86699999999999999</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="3">
         <v>0.86699999999999999</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="3">
         <v>0.86699999999999999</v>
       </c>
-      <c r="N10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O10" s="7">
+      <c r="N10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" s="5">
         <v>0.39200000000000002</v>
       </c>
-      <c r="P10" s="7">
+      <c r="P10" s="5">
         <v>0.39200000000000002</v>
       </c>
-      <c r="Q10" s="7">
+      <c r="Q10" s="5">
         <v>0.40100000000000002</v>
       </c>
-      <c r="R10" s="7">
+      <c r="R10" s="5">
         <v>0.40100000000000002</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="7">
+      <c r="B11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="5">
         <v>0.42</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="5">
         <v>0.376</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="5">
         <v>0.376</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="5">
         <v>0.378</v>
       </c>
-      <c r="H11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="7">
+      <c r="H11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="5">
         <v>0.376</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="5">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="K11" s="5">
         <v>0.376</v>
       </c>
-      <c r="K11" s="7">
-        <v>0.376</v>
-      </c>
-      <c r="L11" s="7">
+      <c r="L11" s="5">
         <v>0.375</v>
       </c>
-      <c r="N11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="O11" s="7">
+      <c r="N11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O11" s="5">
         <v>0.30299999999999999</v>
       </c>
-      <c r="P11" s="7">
+      <c r="P11" s="5">
         <v>0.30399999999999999</v>
       </c>
-      <c r="Q11" s="7">
+      <c r="Q11" s="5">
         <v>0.30599999999999999</v>
       </c>
-      <c r="R11" s="7">
+      <c r="R11" s="5">
         <v>0.30599999999999999</v>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B12" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="15"/>
-      <c r="H12" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="15"/>
-      <c r="N12" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="15"/>
+      <c r="B12" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="13"/>
+      <c r="H12" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="13"/>
+      <c r="N12" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="13"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="7">
+      <c r="B13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="5">
         <v>0.877</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="5">
         <v>0.91700000000000004</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="5">
         <v>0.91700000000000004</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="5">
         <v>0.91700000000000004</v>
       </c>
-      <c r="H13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" s="4">
+      <c r="H13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="3">
         <v>0.23</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="3">
         <v>0.22700000000000001</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="3">
         <v>0.22700000000000001</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="3">
         <v>0.22700000000000001</v>
       </c>
-      <c r="N13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="O13" s="4">
+      <c r="N13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O13" s="3">
         <v>0.19600000000000001</v>
       </c>
-      <c r="P13" s="4">
+      <c r="P13" s="3">
         <v>0.20899999999999999</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="Q13" s="3">
         <v>0.20899999999999999</v>
       </c>
-      <c r="R13" s="4">
+      <c r="R13" s="3">
         <v>0.20899999999999999</v>
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="7">
+      <c r="B14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="5">
         <v>0.72599999999999998</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="5">
         <v>0.66900000000000004</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="5">
         <v>0.61599999999999999</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="5">
         <v>0.57199999999999995</v>
       </c>
-      <c r="H14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="4">
+      <c r="H14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="3">
         <v>0.23799999999999999</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="3">
         <v>0.22500000000000001</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="3">
         <v>0.216</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14" s="3">
         <v>0.20699999999999999</v>
       </c>
-      <c r="N14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="O14" s="4">
+      <c r="N14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O14" s="3">
         <v>0.16900000000000001</v>
       </c>
-      <c r="P14" s="4">
+      <c r="P14" s="3">
         <v>0.159</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="Q14" s="3">
         <v>0.14099999999999999</v>
       </c>
-      <c r="R14" s="4">
+      <c r="R14" s="3">
         <v>0.128</v>
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="7">
+      <c r="B15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="5">
         <v>0.66200000000000003</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="5">
         <v>0.52600000000000002</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="5">
         <v>0.47</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="5">
         <v>0.38900000000000001</v>
       </c>
-      <c r="H15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="4">
+      <c r="H15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="3">
         <v>0.219</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="3">
         <v>0.20499999999999999</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="3">
         <v>0.20200000000000001</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="3">
         <v>0.187</v>
       </c>
-      <c r="N15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="O15" s="4">
+      <c r="N15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O15" s="3">
         <v>0.14099999999999999</v>
       </c>
-      <c r="P15" s="4">
+      <c r="P15" s="3">
         <v>0.12</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="Q15" s="3">
         <v>0.107</v>
       </c>
-      <c r="R15" s="4">
+      <c r="R15" s="3">
         <v>9.1999999999999998E-2</v>
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="7">
+      <c r="B16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="5">
         <v>0.59699999999999998</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="5">
         <v>0.437</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="5">
         <v>0.41099999999999998</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="5">
         <v>0.30599999999999999</v>
       </c>
-      <c r="H16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" s="4">
+      <c r="H16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="3">
         <v>0.216</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="3">
         <v>0.19900000000000001</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="3">
         <v>0.183</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16" s="3">
         <v>0.17799999999999999</v>
       </c>
-      <c r="N16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="O16" s="4">
+      <c r="N16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O16" s="3">
         <v>0.13</v>
       </c>
-      <c r="P16" s="4">
+      <c r="P16" s="3">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="Q16" s="4">
+      <c r="Q16" s="3">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="R16" s="4">
+      <c r="R16" s="3">
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="7">
+      <c r="B17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="5">
         <v>0.53500000000000003</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="5">
         <v>0.39100000000000001</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="5">
         <v>0.37</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="5">
         <v>0.24099999999999999</v>
       </c>
-      <c r="H17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="4">
+      <c r="H17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="3">
         <v>0.20899999999999999</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="3">
         <v>0.2</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="3">
         <v>0.182</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L17" s="3">
         <v>0.18</v>
       </c>
-      <c r="N17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="O17" s="4">
+      <c r="N17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O17" s="3">
         <v>0.111</v>
       </c>
-      <c r="P17" s="4">
+      <c r="P17" s="3">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="Q17" s="4">
+      <c r="Q17" s="3">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="R17" s="4">
+      <c r="R17" s="3">
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B18" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="7">
+      <c r="B18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="5">
         <v>0.42099999999999999</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="5">
         <v>0.27800000000000002</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="5">
         <v>0.20799999999999999</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="5">
         <v>0.16600000000000001</v>
       </c>
-      <c r="H18" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I18" s="4">
+      <c r="H18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="3">
         <v>0.11</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="3">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="3">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18" s="3">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="N18" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O18" s="7">
+      <c r="N18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O18" s="5">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="P18" s="7">
+      <c r="P18" s="5">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="Q18" s="7">
+      <c r="Q18" s="5">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="R18" s="7">
+      <c r="R18" s="5">
         <v>0.04</v>
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="7">
+      <c r="B19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="5">
         <v>0.59799999999999998</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="5">
         <v>0.31</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="5">
         <v>0.23100000000000001</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="5">
         <v>0.185</v>
       </c>
-      <c r="H19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0.46300000000000002</v>
-      </c>
-      <c r="J19" s="7">
+      <c r="H19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" s="5">
         <v>0.30599999999999999</v>
       </c>
-      <c r="K19" s="7">
+      <c r="J19" s="5">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="K19" s="5">
         <v>0.22800000000000001</v>
       </c>
-      <c r="L19" s="7">
+      <c r="L19" s="5">
         <v>0.18099999999999999</v>
       </c>
-      <c r="N19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="O19" s="7">
-        <v>0.245</v>
-      </c>
-      <c r="P19" s="7">
+      <c r="N19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O19" s="5">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="P19" s="5">
         <v>0.16200000000000001</v>
       </c>
-      <c r="Q19" s="7">
+      <c r="Q19" s="5">
         <v>0.123</v>
       </c>
-      <c r="R19" s="7">
+      <c r="R19" s="5">
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B20" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="15"/>
-      <c r="H20" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="15"/>
-      <c r="N20" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="15"/>
+      <c r="B20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="13"/>
+      <c r="H20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="13"/>
+      <c r="N20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="13"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B21" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="7">
+      <c r="B21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="5">
         <v>0.51900000000000002</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="5">
         <v>0.53300000000000003</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="5">
         <v>0.53300000000000003</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="5">
         <v>0.53300000000000003</v>
       </c>
-      <c r="H21" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I21" s="4">
+      <c r="H21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="3">
         <v>0.36199999999999999</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="3">
         <v>0.35799999999999998</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="3">
         <v>0.35799999999999998</v>
       </c>
-      <c r="L21" s="4">
+      <c r="L21" s="3">
         <v>0.35799999999999998</v>
       </c>
-      <c r="N21" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="O21" s="4">
+      <c r="N21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O21" s="3">
         <v>0.251</v>
       </c>
-      <c r="P21" s="4">
+      <c r="P21" s="3">
         <v>0.26600000000000001</v>
       </c>
-      <c r="Q21" s="4">
+      <c r="Q21" s="3">
         <v>0.26600000000000001</v>
       </c>
-      <c r="R21" s="4">
+      <c r="R21" s="3">
         <v>0.26600000000000001</v>
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B22" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="7">
+      <c r="B22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="5">
         <v>0.48099999999999998</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="5">
         <v>0.47599999999999998</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="5">
         <v>0.46700000000000003</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="5">
         <v>0.45500000000000002</v>
       </c>
-      <c r="H22" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I22" s="4">
+      <c r="H22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="3">
         <v>0.374</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="3">
         <v>0.35799999999999998</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="3">
         <v>0.34799999999999998</v>
       </c>
-      <c r="L22" s="4">
+      <c r="L22" s="3">
         <v>0.33700000000000002</v>
       </c>
-      <c r="N22" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="O22" s="4">
+      <c r="N22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O22" s="3">
         <v>0.22800000000000001</v>
       </c>
-      <c r="P22" s="4">
+      <c r="P22" s="3">
         <v>0.221</v>
       </c>
-      <c r="Q22" s="4">
+      <c r="Q22" s="3">
         <v>0.20399999999999999</v>
       </c>
-      <c r="R22" s="4">
+      <c r="R22" s="3">
         <v>0.189</v>
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B23" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="7">
+      <c r="B23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="5">
         <v>0.47299999999999998</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="5">
         <v>0.43</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="5">
         <v>0.41899999999999998</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="5">
         <v>0.379</v>
       </c>
-      <c r="H23" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I23" s="4">
+      <c r="H23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="3">
         <v>0.35</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="3">
         <v>0.33500000000000002</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23" s="3">
         <v>0.33100000000000002</v>
       </c>
-      <c r="L23" s="4">
+      <c r="L23" s="3">
         <v>0.311</v>
       </c>
-      <c r="N23" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="O23" s="4">
+      <c r="N23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O23" s="3">
         <v>0.19900000000000001</v>
       </c>
-      <c r="P23" s="4">
+      <c r="P23" s="3">
         <v>0.17799999999999999</v>
       </c>
-      <c r="Q23" s="4">
+      <c r="Q23" s="3">
         <v>0.16500000000000001</v>
       </c>
-      <c r="R23" s="4">
+      <c r="R23" s="3">
         <v>0.14699999999999999</v>
       </c>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B24" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="7">
+      <c r="B24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="5">
         <v>0.45700000000000002</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="5">
         <v>0.39600000000000002</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="5">
         <v>0.40300000000000002</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="5">
         <v>0.33600000000000002</v>
       </c>
-      <c r="H24" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I24" s="4">
+      <c r="H24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="3">
         <v>0.34699999999999998</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24" s="3">
         <v>0.32600000000000001</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K24" s="3">
         <v>0.30399999999999999</v>
       </c>
-      <c r="L24" s="4">
+      <c r="L24" s="3">
         <v>0.29899999999999999</v>
       </c>
-      <c r="N24" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="O24" s="4">
+      <c r="N24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O24" s="3">
         <v>0.189</v>
       </c>
-      <c r="P24" s="4">
+      <c r="P24" s="3">
         <v>0.151</v>
       </c>
-      <c r="Q24" s="4">
+      <c r="Q24" s="3">
         <v>0.13900000000000001</v>
       </c>
-      <c r="R24" s="4">
+      <c r="R24" s="3">
         <v>0.12</v>
       </c>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="7">
+      <c r="B25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="5">
         <v>0.436</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="5">
         <v>0.38</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="5">
         <v>0.38400000000000001</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="5">
         <v>0.28999999999999998</v>
       </c>
-      <c r="H25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I25" s="4">
+      <c r="H25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="3">
         <v>0.33900000000000002</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25" s="3">
         <v>0.32900000000000001</v>
       </c>
-      <c r="K25" s="4">
+      <c r="K25" s="3">
         <v>0.30499999999999999</v>
       </c>
-      <c r="L25" s="4">
+      <c r="L25" s="3">
         <v>0.30199999999999999</v>
       </c>
-      <c r="N25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="O25" s="4">
+      <c r="N25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O25" s="3">
         <v>0.16700000000000001</v>
       </c>
-      <c r="P25" s="4">
+      <c r="P25" s="3">
         <v>0.13300000000000001</v>
       </c>
-      <c r="Q25" s="4">
+      <c r="Q25" s="3">
         <v>0.115</v>
       </c>
-      <c r="R25" s="4">
+      <c r="R25" s="3">
         <v>0.10199999999999999</v>
       </c>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B26" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="7">
+      <c r="B26" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="5">
         <v>0.36399999999999999</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="5">
         <v>0.28899999999999998</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="5">
         <v>0.23899999999999999</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="5">
         <v>0.20399999999999999</v>
       </c>
-      <c r="H26" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I26" s="4">
+      <c r="H26" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I26" s="3">
         <v>0.224</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J26" s="3">
         <v>0.152</v>
       </c>
-      <c r="K26" s="4">
+      <c r="K26" s="3">
         <v>0.115</v>
       </c>
-      <c r="L26" s="4">
+      <c r="L26" s="3">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="N26" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O26" s="7">
+      <c r="N26" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O26" s="5">
         <v>0.14899999999999999</v>
       </c>
-      <c r="P26" s="7">
+      <c r="P26" s="5">
         <v>0.105</v>
       </c>
-      <c r="Q26" s="7">
+      <c r="Q26" s="5">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="R26" s="7">
+      <c r="R26" s="5">
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B27" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="7">
+      <c r="B27" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="5">
         <v>0.48899999999999999</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="5">
         <v>0.34</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="5">
         <v>0.28599999999999998</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="5">
         <v>0.248</v>
       </c>
-      <c r="H27" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I27" s="7">
-        <v>0.41499999999999998</v>
-      </c>
-      <c r="J27" s="7">
+      <c r="H27" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I27" s="5">
         <v>0.33700000000000002</v>
       </c>
-      <c r="K27" s="7">
+      <c r="J27" s="5">
+        <v>0.316</v>
+      </c>
+      <c r="K27" s="5">
         <v>0.28399999999999997</v>
       </c>
-      <c r="L27" s="7">
+      <c r="L27" s="5">
         <v>0.24399999999999999</v>
       </c>
-      <c r="N27" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="O27" s="7">
-        <v>0.27100000000000002</v>
-      </c>
-      <c r="P27" s="7">
+      <c r="N27" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O27" s="5">
+        <v>0.249</v>
+      </c>
+      <c r="P27" s="5">
         <v>0.21199999999999999</v>
       </c>
-      <c r="Q27" s="7">
+      <c r="Q27" s="5">
         <v>0.17499999999999999</v>
       </c>
-      <c r="R27" s="7">
+      <c r="R27" s="5">
         <v>0.14799999999999999</v>
       </c>
     </row>
@@ -47271,8 +47775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:R27"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26:R27"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -47285,1116 +47789,1128 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="H2" s="12" t="s">
+      <c r="B2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="H2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="N2" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="N2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="5">
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4">
         <v>100</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>200</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>300</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>400</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="5">
+      <c r="H3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="4">
         <v>100</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="4">
         <v>200</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="4">
         <v>300</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="4">
         <v>400</v>
       </c>
-      <c r="N3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="O3" s="5">
+      <c r="N3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="4">
         <v>100</v>
       </c>
-      <c r="P3" s="5">
+      <c r="P3" s="4">
         <v>200</v>
       </c>
-      <c r="Q3" s="5">
+      <c r="Q3" s="4">
         <v>300</v>
       </c>
-      <c r="R3" s="5">
+      <c r="R3" s="4">
         <v>400</v>
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B4" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="15"/>
-      <c r="H4" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="15"/>
-      <c r="N4" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="15"/>
+      <c r="B4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="13"/>
+      <c r="H4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="13"/>
+      <c r="N4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="13"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="7">
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5">
         <v>0.48199999999999998</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="5">
         <v>0.48</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="5">
         <v>0.48</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="5">
         <v>0.48</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="7">
+      <c r="H5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="5">
         <v>0.94299999999999995</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="5">
         <v>0.94199999999999995</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="5">
         <v>0.94199999999999995</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="5">
         <v>0.94199999999999995</v>
       </c>
-      <c r="N5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="O5" s="7">
+      <c r="N5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O5" s="5">
         <v>0.63600000000000001</v>
       </c>
-      <c r="P5" s="7">
+      <c r="P5" s="5">
         <v>0.64500000000000002</v>
       </c>
-      <c r="Q5" s="7">
+      <c r="Q5" s="5">
         <v>0.64500000000000002</v>
       </c>
-      <c r="R5" s="7">
+      <c r="R5" s="5">
         <v>0.64500000000000002</v>
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="7">
+      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="5">
         <v>0.48699999999999999</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="5">
         <v>0.47699999999999998</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="5">
         <v>0.48</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="5">
         <v>0.48099999999999998</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="7">
+      <c r="H6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="5">
         <v>0.93400000000000005</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="5">
         <v>0.92500000000000004</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="5">
         <v>0.94299999999999995</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="5">
         <v>0.94499999999999995</v>
       </c>
-      <c r="N6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="O6" s="7">
+      <c r="N6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" s="5">
         <v>0.63500000000000001</v>
       </c>
-      <c r="P6" s="7">
+      <c r="P6" s="5">
         <v>0.64200000000000002</v>
       </c>
-      <c r="Q6" s="7">
+      <c r="Q6" s="5">
         <v>0.64500000000000002</v>
       </c>
-      <c r="R6" s="7">
+      <c r="R6" s="5">
         <v>0.64500000000000002</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="7">
+      <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="5">
         <v>0.48199999999999998</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="5">
         <v>0.47899999999999998</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="5">
         <v>0.47499999999999998</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="5">
         <v>0.48099999999999998</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="7">
+      <c r="H7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="5">
         <v>0.93600000000000005</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="5">
         <v>0.93400000000000005</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="5">
         <v>0.94499999999999995</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="5">
         <v>0.93899999999999995</v>
       </c>
-      <c r="N7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="O7" s="7">
+      <c r="N7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O7" s="5">
         <v>0.63700000000000001</v>
       </c>
-      <c r="P7" s="7">
+      <c r="P7" s="5">
         <v>0.64100000000000001</v>
       </c>
-      <c r="Q7" s="7">
+      <c r="Q7" s="5">
         <v>0.64500000000000002</v>
       </c>
-      <c r="R7" s="7">
+      <c r="R7" s="5">
         <v>0.64500000000000002</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="7">
+      <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="5">
         <v>0.48499999999999999</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="5">
         <v>0.46800000000000003</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="5">
         <v>0.48299999999999998</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="5">
         <v>0.48</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="7">
+      <c r="H8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="5">
         <v>0.93799999999999994</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="5">
         <v>0.94199999999999995</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="5">
         <v>0.94</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="5">
         <v>0.95</v>
       </c>
-      <c r="N8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="O8" s="6"/>
-      <c r="P8" s="7">
+      <c r="N8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O8" s="5">
+        <v>0.64</v>
+      </c>
+      <c r="P8" s="5">
         <v>0.63800000000000001</v>
       </c>
-      <c r="Q8" s="7">
+      <c r="Q8" s="5">
         <v>0.64500000000000002</v>
       </c>
-      <c r="R8" s="7">
+      <c r="R8" s="5">
         <v>0.64500000000000002</v>
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="7">
+      <c r="B9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="5">
         <v>0.48599999999999999</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="5">
         <v>0.48299999999999998</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="5">
         <v>0.47499999999999998</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="5">
         <v>0.46700000000000003</v>
       </c>
-      <c r="H9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="7">
+      <c r="H9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="5">
         <v>0.93300000000000005</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="5">
         <v>0.93799999999999994</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="5">
         <v>0.94</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="5">
         <v>0.94199999999999995</v>
       </c>
-      <c r="N9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="O9" s="6"/>
-      <c r="P9" s="7">
+      <c r="N9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O9" s="5">
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="P9" s="5">
         <v>0.63500000000000001</v>
       </c>
-      <c r="Q9" s="7">
+      <c r="Q9" s="5">
         <v>0.64</v>
       </c>
-      <c r="R9" s="7">
+      <c r="R9" s="5">
         <v>0.64500000000000002</v>
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="7">
+      <c r="B10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="5">
         <v>0.5</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="5">
         <v>0.5</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="5">
         <v>0.5</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="5">
         <v>0.5</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="7">
+      <c r="H10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="5">
         <v>0.94199999999999995</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="5">
         <v>0.94199999999999995</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="5">
         <v>0.94199999999999995</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="5">
         <v>0.94199999999999995</v>
       </c>
-      <c r="N10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O10" s="7">
+      <c r="N10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" s="5">
         <v>0.80900000000000005</v>
       </c>
-      <c r="P10" s="7">
+      <c r="P10" s="5">
         <v>0.80900000000000005</v>
       </c>
-      <c r="Q10" s="7">
+      <c r="Q10" s="5">
         <v>0.80900000000000005</v>
       </c>
-      <c r="R10" s="7">
+      <c r="R10" s="5">
         <v>0.80900000000000005</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="7">
+      <c r="B11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="5">
         <v>0.496</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="5">
         <v>0.495</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="5">
         <v>0.495</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="5">
         <v>0.495</v>
       </c>
-      <c r="H11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="7">
+      <c r="H11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="5">
         <v>0.496</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="5">
         <v>0.495</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="5">
         <v>0.495</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="5">
         <v>0.495</v>
       </c>
-      <c r="N11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="O11" s="7">
+      <c r="N11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O11" s="5">
         <v>0.47499999999999998</v>
       </c>
-      <c r="P11" s="7">
+      <c r="P11" s="5">
         <v>0.47499999999999998</v>
       </c>
-      <c r="Q11" s="7">
+      <c r="Q11" s="5">
         <v>0.47499999999999998</v>
       </c>
-      <c r="R11" s="7">
+      <c r="R11" s="5">
         <v>0.47499999999999998</v>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B12" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="15"/>
-      <c r="H12" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="15"/>
-      <c r="N12" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="15"/>
+      <c r="B12" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="13"/>
+      <c r="H12" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="13"/>
+      <c r="N12" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="13"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="7">
+      <c r="B13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="5">
         <v>0.83099999999999996</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="5">
         <v>0.82599999999999996</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="5">
         <v>0.82599999999999996</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="5">
         <v>0.82599999999999996</v>
       </c>
-      <c r="H13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" s="7">
+      <c r="H13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="5">
         <v>0.48799999999999999</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="5">
         <v>0.48599999999999999</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="5">
         <v>0.48599999999999999</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L13" s="5">
         <v>0.48599999999999999</v>
       </c>
-      <c r="N13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="O13" s="7">
+      <c r="N13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O13" s="5">
         <v>0.35799999999999998</v>
       </c>
-      <c r="P13" s="7">
+      <c r="P13" s="5">
         <v>0.371</v>
       </c>
-      <c r="Q13" s="7">
+      <c r="Q13" s="5">
         <v>0.371</v>
       </c>
-      <c r="R13" s="7">
+      <c r="R13" s="5">
         <v>0.371</v>
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="7">
+      <c r="B14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="5">
         <v>0.76700000000000002</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="5">
         <v>0.66400000000000003</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="5">
         <v>0.61899999999999999</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="5">
         <v>0.57499999999999996</v>
       </c>
-      <c r="H14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="7">
+      <c r="H14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="5">
         <v>0.45500000000000002</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="5">
         <v>0.40799999999999997</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="5">
         <v>0.371</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L14" s="5">
         <v>0.35199999999999998</v>
       </c>
-      <c r="N14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="O14" s="7">
+      <c r="N14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O14" s="5">
         <v>0.32</v>
       </c>
-      <c r="P14" s="7">
+      <c r="P14" s="5">
         <v>0.3</v>
       </c>
-      <c r="Q14" s="7">
+      <c r="Q14" s="5">
         <v>0.27800000000000002</v>
       </c>
-      <c r="R14" s="7">
+      <c r="R14" s="5">
         <v>0.25700000000000001</v>
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="7">
+      <c r="B15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="5">
         <v>0.68100000000000005</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="5">
         <v>0.56200000000000006</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="5">
         <v>0.48299999999999998</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="5">
         <v>0.435</v>
       </c>
-      <c r="H15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="7">
+      <c r="H15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="5">
         <v>0.42899999999999999</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="5">
         <v>0.36299999999999999</v>
       </c>
-      <c r="K15" s="7">
+      <c r="K15" s="5">
         <v>0.30599999999999999</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15" s="5">
         <v>0.28100000000000003</v>
       </c>
-      <c r="N15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="O15" s="7">
+      <c r="N15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O15" s="5">
         <v>0.29199999999999998</v>
       </c>
-      <c r="P15" s="7">
+      <c r="P15" s="5">
         <v>0.252</v>
       </c>
-      <c r="Q15" s="7">
+      <c r="Q15" s="5">
         <v>0.222</v>
       </c>
-      <c r="R15" s="7">
+      <c r="R15" s="5">
         <v>0.19600000000000001</v>
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="7">
+      <c r="B16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="5">
         <v>0.61699999999999999</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="5">
         <v>0.45600000000000002</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="5">
         <v>0.41399999999999998</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="5">
         <v>0.35199999999999998</v>
       </c>
-      <c r="H16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" s="7">
+      <c r="H16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="5">
         <v>0.38300000000000001</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="5">
         <v>0.32400000000000001</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="5">
         <v>0.27</v>
       </c>
-      <c r="L16" s="7">
+      <c r="L16" s="5">
         <v>0.23899999999999999</v>
       </c>
-      <c r="N16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="O16" s="6"/>
-      <c r="P16" s="7">
+      <c r="N16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O16" s="5">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="P16" s="5">
         <v>0.215</v>
       </c>
-      <c r="Q16" s="7">
+      <c r="Q16" s="5">
         <v>0.185</v>
       </c>
-      <c r="R16" s="7">
+      <c r="R16" s="5">
         <v>0.159</v>
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="7">
+      <c r="B17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="5">
         <v>0.58899999999999997</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="5">
         <v>0.435</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="5">
         <v>0.33600000000000002</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="5">
         <v>0.27900000000000003</v>
       </c>
-      <c r="H17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="7">
+      <c r="H17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="5">
         <v>0.35699999999999998</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="5">
         <v>0.28899999999999998</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K17" s="5">
         <v>0.25</v>
       </c>
-      <c r="L17" s="7">
+      <c r="L17" s="5">
         <v>0.20899999999999999</v>
       </c>
-      <c r="N17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="O17" s="6"/>
-      <c r="P17" s="7">
+      <c r="N17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O17" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="P17" s="5">
         <v>0.188</v>
       </c>
-      <c r="Q17" s="7">
+      <c r="Q17" s="5">
         <v>0.155</v>
       </c>
-      <c r="R17" s="7">
+      <c r="R17" s="5">
         <v>0.13300000000000001</v>
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B18" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="7">
+      <c r="B18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="5">
         <v>0.433</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="5">
         <v>0.3</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="5">
         <v>0.22900000000000001</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="5">
         <v>0.186</v>
       </c>
-      <c r="H18" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I18" s="7">
+      <c r="H18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="5">
         <v>0.27700000000000002</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="5">
         <v>0.19400000000000001</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K18" s="5">
         <v>0.14899999999999999</v>
       </c>
-      <c r="L18" s="7">
+      <c r="L18" s="5">
         <v>0.122</v>
       </c>
-      <c r="N18" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O18" s="7">
+      <c r="N18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O18" s="5">
         <v>0.21099999999999999</v>
       </c>
-      <c r="P18" s="7">
+      <c r="P18" s="5">
         <v>0.14599999999999999</v>
       </c>
-      <c r="Q18" s="7">
+      <c r="Q18" s="5">
         <v>0.112</v>
       </c>
-      <c r="R18" s="7">
+      <c r="R18" s="5">
         <v>0.09</v>
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="7">
+      <c r="B19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="5">
         <v>0.54300000000000004</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="5">
         <v>0.38</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="5">
         <v>0.29299999999999998</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="5">
         <v>0.23799999999999999</v>
       </c>
-      <c r="H19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I19" s="7">
+      <c r="H19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" s="5">
         <v>0.54300000000000004</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J19" s="5">
         <v>0.38</v>
       </c>
-      <c r="K19" s="7">
+      <c r="K19" s="5">
         <v>0.29299999999999998</v>
       </c>
-      <c r="L19" s="7">
+      <c r="L19" s="5">
         <v>0.23799999999999999</v>
       </c>
-      <c r="N19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="O19" s="7">
+      <c r="N19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O19" s="5">
         <v>0.45500000000000002</v>
       </c>
-      <c r="P19" s="7">
+      <c r="P19" s="5">
         <v>0.31900000000000001</v>
       </c>
-      <c r="Q19" s="7">
+      <c r="Q19" s="5">
         <v>0.246</v>
       </c>
-      <c r="R19" s="7">
+      <c r="R19" s="5">
         <v>0.2</v>
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B20" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="15"/>
-      <c r="H20" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="15"/>
-      <c r="N20" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="15"/>
+      <c r="B20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="13"/>
+      <c r="H20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="13"/>
+      <c r="N20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="13"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B21" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="7">
+      <c r="B21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="5">
         <v>0.60899999999999999</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="5">
         <v>0.60599999999999998</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="5">
         <v>0.60599999999999998</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="5">
         <v>0.60599999999999998</v>
       </c>
-      <c r="H21" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I21" s="7">
+      <c r="H21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="5">
         <v>0.64300000000000002</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J21" s="5">
         <v>0.64100000000000001</v>
       </c>
-      <c r="K21" s="7">
+      <c r="K21" s="5">
         <v>0.64100000000000001</v>
       </c>
-      <c r="L21" s="7">
+      <c r="L21" s="5">
         <v>0.64100000000000001</v>
       </c>
-      <c r="N21" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="O21" s="7">
+      <c r="N21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O21" s="5">
         <v>0.45800000000000002</v>
       </c>
-      <c r="P21" s="7">
+      <c r="P21" s="5">
         <v>0.47099999999999997</v>
       </c>
-      <c r="Q21" s="7">
+      <c r="Q21" s="5">
         <v>0.47099999999999997</v>
       </c>
-      <c r="R21" s="7">
+      <c r="R21" s="5">
         <v>0.47099999999999997</v>
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B22" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="7">
+      <c r="B22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="5">
         <v>0.59499999999999997</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="5">
         <v>0.55400000000000005</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="5">
         <v>0.54</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="5">
         <v>0.52300000000000002</v>
       </c>
-      <c r="H22" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I22" s="7">
+      <c r="H22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="5">
         <v>0.61199999999999999</v>
       </c>
-      <c r="J22" s="7">
+      <c r="J22" s="5">
         <v>0.56599999999999995</v>
       </c>
-      <c r="K22" s="7">
+      <c r="K22" s="5">
         <v>0.53200000000000003</v>
       </c>
-      <c r="L22" s="7">
+      <c r="L22" s="5">
         <v>0.51200000000000001</v>
       </c>
-      <c r="N22" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="O22" s="7">
+      <c r="N22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O22" s="5">
         <v>0.42499999999999999</v>
       </c>
-      <c r="P22" s="7">
+      <c r="P22" s="5">
         <v>0.40899999999999997</v>
       </c>
-      <c r="Q22" s="7">
+      <c r="Q22" s="5">
         <v>0.38900000000000001</v>
       </c>
-      <c r="R22" s="7">
+      <c r="R22" s="5">
         <v>0.36699999999999999</v>
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B23" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="7">
+      <c r="B23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="5">
         <v>0.56399999999999995</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="5">
         <v>0.51600000000000001</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="5">
         <v>0.47799999999999998</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="5">
         <v>0.45500000000000002</v>
       </c>
-      <c r="H23" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I23" s="7">
+      <c r="H23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="5">
         <v>0.58799999999999997</v>
       </c>
-      <c r="J23" s="7">
+      <c r="J23" s="5">
         <v>0.52300000000000002</v>
       </c>
-      <c r="K23" s="7">
+      <c r="K23" s="5">
         <v>0.46200000000000002</v>
       </c>
-      <c r="L23" s="7">
+      <c r="L23" s="5">
         <v>0.432</v>
       </c>
-      <c r="N23" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="O23" s="7">
+      <c r="N23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O23" s="5">
         <v>0.4</v>
       </c>
-      <c r="P23" s="7">
+      <c r="P23" s="5">
         <v>0.36199999999999999</v>
       </c>
-      <c r="Q23" s="7">
+      <c r="Q23" s="5">
         <v>0.33100000000000002</v>
       </c>
-      <c r="R23" s="7">
+      <c r="R23" s="5">
         <v>0.30099999999999999</v>
       </c>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B24" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="7">
+      <c r="B24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="5">
         <v>0.54200000000000004</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="5">
         <v>0.46200000000000002</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="5">
         <v>0.44500000000000001</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="5">
         <v>0.40500000000000003</v>
       </c>
-      <c r="H24" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I24" s="7">
+      <c r="H24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="5">
         <v>0.54300000000000004</v>
       </c>
-      <c r="J24" s="7">
+      <c r="J24" s="5">
         <v>0.48199999999999998</v>
       </c>
-      <c r="K24" s="7">
+      <c r="K24" s="5">
         <v>0.42</v>
       </c>
-      <c r="L24" s="7">
+      <c r="L24" s="5">
         <v>0.38200000000000001</v>
       </c>
-      <c r="N24" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="O24" s="6"/>
-      <c r="P24" s="7">
+      <c r="N24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O24" s="5">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="P24" s="5">
         <v>0.32200000000000001</v>
       </c>
-      <c r="Q24" s="7">
+      <c r="Q24" s="5">
         <v>0.28799999999999998</v>
       </c>
-      <c r="R24" s="7">
+      <c r="R24" s="5">
         <v>0.255</v>
       </c>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="7">
+      <c r="B25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="5">
         <v>0.53100000000000003</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="5">
         <v>0.45600000000000002</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="5">
         <v>0.39300000000000002</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="5">
         <v>0.34899999999999998</v>
       </c>
-      <c r="H25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I25" s="7">
+      <c r="H25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="5">
         <v>0.51600000000000001</v>
       </c>
-      <c r="J25" s="7">
+      <c r="J25" s="5">
         <v>0.442</v>
       </c>
-      <c r="K25" s="7">
+      <c r="K25" s="5">
         <v>0.39500000000000002</v>
       </c>
-      <c r="L25" s="7">
+      <c r="L25" s="5">
         <v>0.34200000000000003</v>
       </c>
-      <c r="N25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="O25" s="6"/>
-      <c r="P25" s="7">
+      <c r="N25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O25" s="5">
+        <v>0.36</v>
+      </c>
+      <c r="P25" s="5">
         <v>0.28999999999999998</v>
       </c>
-      <c r="Q25" s="7">
+      <c r="Q25" s="5">
         <v>0.249</v>
       </c>
-      <c r="R25" s="7">
+      <c r="R25" s="5">
         <v>0.221</v>
       </c>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B26" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="7">
+      <c r="B26" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="5">
         <v>0.46400000000000002</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="5">
         <v>0.375</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="5">
         <v>0.315</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="5">
         <v>0.27100000000000002</v>
       </c>
-      <c r="H26" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I26" s="7">
+      <c r="H26" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I26" s="5">
         <v>0.42799999999999999</v>
       </c>
-      <c r="J26" s="7">
+      <c r="J26" s="5">
         <v>0.32200000000000001</v>
       </c>
-      <c r="K26" s="7">
+      <c r="K26" s="5">
         <v>0.25800000000000001</v>
       </c>
-      <c r="L26" s="7">
+      <c r="L26" s="5">
         <v>0.215</v>
       </c>
-      <c r="N26" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O26" s="7">
+      <c r="N26" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O26" s="5">
         <v>0.33500000000000002</v>
       </c>
-      <c r="P26" s="7">
+      <c r="P26" s="5">
         <v>0.248</v>
       </c>
-      <c r="Q26" s="7">
+      <c r="Q26" s="5">
         <v>0.19600000000000001</v>
       </c>
-      <c r="R26" s="7">
+      <c r="R26" s="5">
         <v>0.16300000000000001</v>
       </c>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B27" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="7">
+      <c r="B27" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="5">
         <v>0.51800000000000002</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="5">
         <v>0.43</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="5">
         <v>0.36799999999999999</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="5">
         <v>0.32100000000000001</v>
       </c>
-      <c r="H27" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I27" s="7">
+      <c r="H27" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I27" s="5">
         <v>0.51800000000000002</v>
       </c>
-      <c r="J27" s="7">
+      <c r="J27" s="5">
         <v>0.43</v>
       </c>
-      <c r="K27" s="7">
+      <c r="K27" s="5">
         <v>0.36799999999999999</v>
       </c>
-      <c r="L27" s="7">
+      <c r="L27" s="5">
         <v>0.32100000000000001</v>
       </c>
-      <c r="N27" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="O27" s="7">
+      <c r="N27" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O27" s="5">
         <v>0.46400000000000002</v>
       </c>
-      <c r="P27" s="7">
+      <c r="P27" s="5">
         <v>0.38100000000000001</v>
       </c>
-      <c r="Q27" s="7">
+      <c r="Q27" s="5">
         <v>0.32300000000000001</v>
       </c>
-      <c r="R27" s="7">
+      <c r="R27" s="5">
         <v>0.28100000000000003</v>
       </c>
     </row>
@@ -48435,1136 +48951,1136 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="H2" s="12" t="s">
+      <c r="B2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="H2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="N2" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="N2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="5">
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4">
         <v>100</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>200</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>300</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>400</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="5">
+      <c r="H3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="4">
         <v>100</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="4">
         <v>200</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="4">
         <v>300</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="4">
         <v>400</v>
       </c>
-      <c r="N3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="O3" s="5">
+      <c r="N3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="4">
         <v>100</v>
       </c>
-      <c r="P3" s="5">
+      <c r="P3" s="4">
         <v>200</v>
       </c>
-      <c r="Q3" s="5">
+      <c r="Q3" s="4">
         <v>300</v>
       </c>
-      <c r="R3" s="5">
+      <c r="R3" s="4">
         <v>400</v>
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B4" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="15"/>
-      <c r="H4" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="15"/>
-      <c r="N4" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="15"/>
+      <c r="B4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="13"/>
+      <c r="H4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="13"/>
+      <c r="N4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="13"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="7">
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="5">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="5">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="5">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="7">
+      <c r="H5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="5">
         <v>0.14799999999999999</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="5">
         <v>0.14799999999999999</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="5">
         <v>0.14799999999999999</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="5">
         <v>0.14799999999999999</v>
       </c>
-      <c r="N5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="O5" s="7">
+      <c r="N5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O5" s="5">
         <v>0.47499999999999998</v>
       </c>
-      <c r="P5" s="7">
+      <c r="P5" s="5">
         <v>0.47599999999999998</v>
       </c>
-      <c r="Q5" s="7">
+      <c r="Q5" s="5">
         <v>0.47599999999999998</v>
       </c>
-      <c r="R5" s="7">
+      <c r="R5" s="5">
         <v>0.47599999999999998</v>
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="7">
+      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="5">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="5">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="5">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="5">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="7">
+      <c r="H6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="5">
         <v>0.14799999999999999</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="5">
         <v>0.151</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="5">
         <v>0.152</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="5">
         <v>0.153</v>
       </c>
-      <c r="N6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="O6" s="7">
+      <c r="N6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" s="5">
         <v>0.47099999999999997</v>
       </c>
-      <c r="P6" s="7">
+      <c r="P6" s="5">
         <v>0.47599999999999998</v>
       </c>
-      <c r="Q6" s="7">
+      <c r="Q6" s="5">
         <v>0.47599999999999998</v>
       </c>
-      <c r="R6" s="7">
+      <c r="R6" s="5">
         <v>0.47599999999999998</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="7">
+      <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="5">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="5">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="5">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="5">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="7">
+      <c r="H7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="5">
         <v>0.15</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="5">
         <v>0.153</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="5">
         <v>0.155</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="5">
         <v>0.155</v>
       </c>
-      <c r="N7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="O7" s="7">
+      <c r="N7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O7" s="5">
         <v>0.47199999999999998</v>
       </c>
-      <c r="P7" s="7">
+      <c r="P7" s="5">
         <v>0.47499999999999998</v>
       </c>
-      <c r="Q7" s="7">
+      <c r="Q7" s="5">
         <v>0.47599999999999998</v>
       </c>
-      <c r="R7" s="7">
+      <c r="R7" s="5">
         <v>0.47599999999999998</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="7">
+      <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="5">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="5">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="5">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="5">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="7">
+      <c r="H8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="5">
         <v>0.15</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="5">
         <v>0.153</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="5">
         <v>0.154</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="5">
         <v>0.154</v>
       </c>
-      <c r="N8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="O8" s="7">
+      <c r="N8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O8" s="5">
         <v>0.47099999999999997</v>
       </c>
-      <c r="P8" s="7">
+      <c r="P8" s="5">
         <v>0.47299999999999998</v>
       </c>
-      <c r="Q8" s="7">
+      <c r="Q8" s="5">
         <v>0.47499999999999998</v>
       </c>
-      <c r="R8" s="7">
+      <c r="R8" s="5">
         <v>0.47599999999999998</v>
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="7">
+      <c r="B9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="5">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="5">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="5">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="5">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="H9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="7">
+      <c r="H9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="5">
         <v>0.152</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="5">
         <v>0.156</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="5">
         <v>0.16200000000000001</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="5">
         <v>0.16200000000000001</v>
       </c>
-      <c r="N9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="O9" s="7">
+      <c r="N9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O9" s="5">
         <v>0.47</v>
       </c>
-      <c r="P9" s="7">
+      <c r="P9" s="5">
         <v>0.47299999999999998</v>
       </c>
-      <c r="Q9" s="7">
+      <c r="Q9" s="5">
         <v>0.47399999999999998</v>
       </c>
-      <c r="R9" s="7">
+      <c r="R9" s="5">
         <v>0.47599999999999998</v>
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="7">
+      <c r="B10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="5">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="5">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="5">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="5">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="7">
+      <c r="H10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="5">
         <v>0.20300000000000001</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="5">
         <v>0.20300000000000001</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="5">
         <v>0.20300000000000001</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="5">
         <v>0.20300000000000001</v>
       </c>
-      <c r="N10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O10" s="7">
+      <c r="N10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" s="5">
         <v>0.49299999999999999</v>
       </c>
-      <c r="P10" s="7">
+      <c r="P10" s="5">
         <v>0.49299999999999999</v>
       </c>
-      <c r="Q10" s="7">
+      <c r="Q10" s="5">
         <v>0.49299999999999999</v>
       </c>
-      <c r="R10" s="7">
+      <c r="R10" s="5">
         <v>0.49299999999999999</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="7">
+      <c r="B11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="5">
         <v>0.10100000000000001</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="5">
         <v>0.10100000000000001</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="5">
         <v>0.10100000000000001</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="5">
         <v>0.10100000000000001</v>
       </c>
-      <c r="H11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="7">
+      <c r="H11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="5">
         <v>0.16900000000000001</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="5">
         <v>0.16900000000000001</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="5">
         <v>0.16900000000000001</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="5">
         <v>0.16900000000000001</v>
       </c>
-      <c r="N11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="O11" s="7">
+      <c r="N11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O11" s="5">
         <v>0.42799999999999999</v>
       </c>
-      <c r="P11" s="7">
+      <c r="P11" s="5">
         <v>0.42799999999999999</v>
       </c>
-      <c r="Q11" s="7">
+      <c r="Q11" s="5">
         <v>0.42799999999999999</v>
       </c>
-      <c r="R11" s="7">
+      <c r="R11" s="5">
         <v>0.42799999999999999</v>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B12" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="15"/>
-      <c r="H12" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="15"/>
-      <c r="N12" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="15"/>
+      <c r="B12" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="13"/>
+      <c r="H12" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="13"/>
+      <c r="N12" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="13"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="7">
+      <c r="B13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="5">
         <v>0.34300000000000003</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="5">
         <v>0.34</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="5">
         <v>0.34</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="5">
         <v>0.34</v>
       </c>
-      <c r="H13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" s="7">
+      <c r="H13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="5">
         <v>0.55600000000000005</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="5">
         <v>0.55800000000000005</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="5">
         <v>0.55800000000000005</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L13" s="5">
         <v>0.55800000000000005</v>
       </c>
-      <c r="N13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="O13" s="7">
+      <c r="N13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O13" s="5">
         <v>0.51600000000000001</v>
       </c>
-      <c r="P13" s="7">
+      <c r="P13" s="5">
         <v>0.51700000000000002</v>
       </c>
-      <c r="Q13" s="7">
+      <c r="Q13" s="5">
         <v>0.51700000000000002</v>
       </c>
-      <c r="R13" s="7">
+      <c r="R13" s="5">
         <v>0.51700000000000002</v>
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="7">
+      <c r="B14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="5">
         <v>0.311</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="5">
         <v>0.28699999999999998</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="5">
         <v>0.26800000000000002</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="5">
         <v>0.25</v>
       </c>
-      <c r="H14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="7">
+      <c r="H14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="5">
         <v>0.51500000000000001</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="5">
         <v>0.48799999999999999</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="5">
         <v>0.46</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L14" s="5">
         <v>0.435</v>
       </c>
-      <c r="N14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="O14" s="7">
+      <c r="N14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O14" s="5">
         <v>0.46700000000000003</v>
       </c>
-      <c r="P14" s="7">
+      <c r="P14" s="5">
         <v>0.443</v>
       </c>
-      <c r="Q14" s="7">
+      <c r="Q14" s="5">
         <v>0.41399999999999998</v>
       </c>
-      <c r="R14" s="7">
+      <c r="R14" s="5">
         <v>0.39</v>
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="7">
+      <c r="B15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="5">
         <v>0.28699999999999998</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="5">
         <v>0.252</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="5">
         <v>0.223</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="5">
         <v>0.20100000000000001</v>
       </c>
-      <c r="H15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="7">
+      <c r="H15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="5">
         <v>0.48399999999999999</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="5">
         <v>0.434</v>
       </c>
-      <c r="K15" s="7">
+      <c r="K15" s="5">
         <v>0.39400000000000002</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15" s="5">
         <v>0.35699999999999998</v>
       </c>
-      <c r="N15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="O15" s="7">
+      <c r="N15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O15" s="5">
         <v>0.436</v>
       </c>
-      <c r="P15" s="7">
+      <c r="P15" s="5">
         <v>0.38800000000000001</v>
       </c>
-      <c r="Q15" s="7">
+      <c r="Q15" s="5">
         <v>0.34799999999999998</v>
       </c>
-      <c r="R15" s="7">
+      <c r="R15" s="5">
         <v>0.316</v>
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="7">
+      <c r="B16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="5">
         <v>0.26800000000000002</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="5">
         <v>0.223</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="5">
         <v>0.191</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="5">
         <v>0.16800000000000001</v>
       </c>
-      <c r="H16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" s="7">
+      <c r="H16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="5">
         <v>0.45500000000000002</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="5">
         <v>0.38900000000000001</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="5">
         <v>0.34</v>
       </c>
-      <c r="L16" s="7">
+      <c r="L16" s="5">
         <v>0.30099999999999999</v>
       </c>
-      <c r="N16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="O16" s="7">
+      <c r="N16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O16" s="5">
         <v>0.40600000000000003</v>
       </c>
-      <c r="P16" s="7">
+      <c r="P16" s="5">
         <v>0.34599999999999997</v>
       </c>
-      <c r="Q16" s="7">
+      <c r="Q16" s="5">
         <v>0.30099999999999999</v>
       </c>
-      <c r="R16" s="7">
+      <c r="R16" s="5">
         <v>0.26600000000000001</v>
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="7">
+      <c r="B17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="5">
         <v>0.25</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="5">
         <v>0.20100000000000001</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="5">
         <v>0.16800000000000001</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="5">
         <v>0.14499999999999999</v>
       </c>
-      <c r="H17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="7">
+      <c r="H17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="5">
         <v>0.433</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="5">
         <v>0.35699999999999998</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K17" s="5">
         <v>0.309</v>
       </c>
-      <c r="L17" s="7">
+      <c r="L17" s="5">
         <v>0.26900000000000002</v>
       </c>
-      <c r="N17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="O17" s="7">
+      <c r="N17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O17" s="5">
         <v>0.38100000000000001</v>
       </c>
-      <c r="P17" s="7">
+      <c r="P17" s="5">
         <v>0.312</v>
       </c>
-      <c r="Q17" s="7">
+      <c r="Q17" s="5">
         <v>0.26400000000000001</v>
       </c>
-      <c r="R17" s="7">
+      <c r="R17" s="5">
         <v>0.23100000000000001</v>
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B18" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="7">
+      <c r="B18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="5">
         <v>0.215</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="5">
         <v>0.16</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="5">
         <v>0.128</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="5">
         <v>0.107</v>
       </c>
-      <c r="H18" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I18" s="7">
+      <c r="H18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="5">
         <v>0.29899999999999999</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="5">
         <v>0.22800000000000001</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K18" s="5">
         <v>0.184</v>
       </c>
-      <c r="L18" s="7">
+      <c r="L18" s="5">
         <v>0.155</v>
       </c>
-      <c r="N18" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O18" s="7">
+      <c r="N18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O18" s="5">
         <v>0.30599999999999999</v>
       </c>
-      <c r="P18" s="7">
+      <c r="P18" s="5">
         <v>0.23</v>
       </c>
-      <c r="Q18" s="7">
+      <c r="Q18" s="5">
         <v>0.186</v>
       </c>
-      <c r="R18" s="7">
+      <c r="R18" s="5">
         <v>0.156</v>
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="7">
+      <c r="B19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="5">
         <v>0.3</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="5">
         <v>0.28699999999999998</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="5">
         <v>0.26800000000000002</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="5">
         <v>0.29399999999999998</v>
       </c>
-      <c r="H19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I19" s="7">
+      <c r="H19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" s="5">
         <v>0.55500000000000005</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J19" s="5">
         <v>0.42199999999999999</v>
       </c>
-      <c r="K19" s="7">
+      <c r="K19" s="5">
         <v>0.34</v>
       </c>
-      <c r="L19" s="7">
+      <c r="L19" s="5">
         <v>0.28399999999999997</v>
       </c>
-      <c r="N19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="O19" s="7">
+      <c r="N19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O19" s="5">
         <v>0.378</v>
       </c>
-      <c r="P19" s="7">
+      <c r="P19" s="5">
         <v>0.28399999999999997</v>
       </c>
-      <c r="Q19" s="7">
+      <c r="Q19" s="5">
         <v>0.22800000000000001</v>
       </c>
-      <c r="R19" s="7">
+      <c r="R19" s="5">
         <v>0.191</v>
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B20" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="15"/>
-      <c r="H20" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="15"/>
-      <c r="N20" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="15"/>
+      <c r="B20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="13"/>
+      <c r="H20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="13"/>
+      <c r="N20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="13"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B21" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="7">
+      <c r="B21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="5">
         <v>0.13600000000000001</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="5">
         <v>0.13500000000000001</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="5">
         <v>0.13500000000000001</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="5">
         <v>0.13500000000000001</v>
       </c>
-      <c r="H21" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I21" s="7">
+      <c r="H21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="5">
         <v>0.23200000000000001</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J21" s="5">
         <v>0.23200000000000001</v>
       </c>
-      <c r="K21" s="7">
+      <c r="K21" s="5">
         <v>0.23200000000000001</v>
       </c>
-      <c r="L21" s="7">
+      <c r="L21" s="5">
         <v>0.23200000000000001</v>
       </c>
-      <c r="N21" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="O21" s="7">
+      <c r="N21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O21" s="5">
         <v>0.49</v>
       </c>
-      <c r="P21" s="7">
+      <c r="P21" s="5">
         <v>0.49099999999999999</v>
       </c>
-      <c r="Q21" s="7">
+      <c r="Q21" s="5">
         <v>0.49099999999999999</v>
       </c>
-      <c r="R21" s="7">
+      <c r="R21" s="5">
         <v>0.49099999999999999</v>
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B22" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="7">
+      <c r="B22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="5">
         <v>0.13300000000000001</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="5">
         <v>0.13100000000000001</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="5">
         <v>0.129</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="5">
         <v>0.127</v>
       </c>
-      <c r="H22" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I22" s="7">
+      <c r="H22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="5">
         <v>0.22700000000000001</v>
       </c>
-      <c r="J22" s="7">
+      <c r="J22" s="5">
         <v>0.22700000000000001</v>
       </c>
-      <c r="K22" s="7">
+      <c r="K22" s="5">
         <v>0.22500000000000001</v>
       </c>
-      <c r="L22" s="7">
+      <c r="L22" s="5">
         <v>0.222</v>
       </c>
-      <c r="N22" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="O22" s="7">
+      <c r="N22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O22" s="5">
         <v>0.46200000000000002</v>
       </c>
-      <c r="P22" s="7">
+      <c r="P22" s="5">
         <v>0.45100000000000001</v>
       </c>
-      <c r="Q22" s="7">
+      <c r="Q22" s="5">
         <v>0.434</v>
       </c>
-      <c r="R22" s="7">
+      <c r="R22" s="5">
         <v>0.41799999999999998</v>
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B23" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="7">
+      <c r="B23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="5">
         <v>0.13100000000000001</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="5">
         <v>0.128</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="5">
         <v>0.123</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="5">
         <v>0.12</v>
       </c>
-      <c r="H23" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I23" s="7">
+      <c r="H23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="5">
         <v>0.22500000000000001</v>
       </c>
-      <c r="J23" s="7">
+      <c r="J23" s="5">
         <v>0.222</v>
       </c>
-      <c r="K23" s="7">
+      <c r="K23" s="5">
         <v>0.217</v>
       </c>
-      <c r="L23" s="7">
+      <c r="L23" s="5">
         <v>0.21</v>
       </c>
-      <c r="N23" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="O23" s="7">
+      <c r="N23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O23" s="5">
         <v>0.44500000000000001</v>
       </c>
-      <c r="P23" s="7">
+      <c r="P23" s="5">
         <v>0.41699999999999998</v>
       </c>
-      <c r="Q23" s="7">
+      <c r="Q23" s="5">
         <v>0.39100000000000001</v>
       </c>
-      <c r="R23" s="7">
+      <c r="R23" s="5">
         <v>0.36699999999999999</v>
       </c>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B24" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="7">
+      <c r="B24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="5">
         <v>0.129</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="5">
         <v>0.123</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="5">
         <v>0.11799999999999999</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="5">
         <v>0.113</v>
       </c>
-      <c r="H24" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I24" s="7">
+      <c r="H24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="5">
         <v>0.222</v>
       </c>
-      <c r="J24" s="7">
+      <c r="J24" s="5">
         <v>0.214</v>
       </c>
-      <c r="K24" s="7">
+      <c r="K24" s="5">
         <v>0.20499999999999999</v>
       </c>
-      <c r="L24" s="7">
+      <c r="L24" s="5">
         <v>0.19600000000000001</v>
       </c>
-      <c r="N24" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="O24" s="7">
+      <c r="N24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O24" s="5">
         <v>0.42699999999999999</v>
       </c>
-      <c r="P24" s="7">
+      <c r="P24" s="5">
         <v>0.38800000000000001</v>
       </c>
-      <c r="Q24" s="7">
+      <c r="Q24" s="5">
         <v>0.35599999999999998</v>
       </c>
-      <c r="R24" s="7">
+      <c r="R24" s="5">
         <v>0.32900000000000001</v>
       </c>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="7">
+      <c r="B25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="5">
         <v>0.127</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="5">
         <v>0.12</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="5">
         <v>0.113</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="5">
         <v>0.107</v>
       </c>
-      <c r="H25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I25" s="7">
+      <c r="H25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="5">
         <v>0.221</v>
       </c>
-      <c r="J25" s="7">
+      <c r="J25" s="5">
         <v>0.21099999999999999</v>
       </c>
-      <c r="K25" s="7">
+      <c r="K25" s="5">
         <v>0.20399999999999999</v>
       </c>
-      <c r="L25" s="7">
+      <c r="L25" s="5">
         <v>0.193</v>
       </c>
-      <c r="N25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="O25" s="7">
+      <c r="N25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O25" s="5">
         <v>0.41099999999999998</v>
       </c>
-      <c r="P25" s="7">
+      <c r="P25" s="5">
         <v>0.36399999999999999</v>
       </c>
-      <c r="Q25" s="7">
+      <c r="Q25" s="5">
         <v>0.32700000000000001</v>
       </c>
-      <c r="R25" s="7">
+      <c r="R25" s="5">
         <v>0.29899999999999999</v>
       </c>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B26" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="7">
+      <c r="B26" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="5">
         <v>0.122</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="5">
         <v>0.111</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="5">
         <v>0.10199999999999999</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="5">
         <v>9.4E-2</v>
       </c>
-      <c r="H26" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I26" s="7">
+      <c r="H26" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I26" s="5">
         <v>0.23200000000000001</v>
       </c>
-      <c r="J26" s="7">
+      <c r="J26" s="5">
         <v>0.20499999999999999</v>
       </c>
-      <c r="K26" s="7">
+      <c r="K26" s="5">
         <v>0.183</v>
       </c>
-      <c r="L26" s="7">
+      <c r="L26" s="5">
         <v>0.16600000000000001</v>
       </c>
-      <c r="N26" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O26" s="7">
+      <c r="N26" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O26" s="5">
         <v>0.246</v>
       </c>
-      <c r="P26" s="7">
+      <c r="P26" s="5">
         <v>0.22700000000000001</v>
       </c>
-      <c r="Q26" s="7">
+      <c r="Q26" s="5">
         <v>0.21199999999999999</v>
       </c>
-      <c r="R26" s="7">
+      <c r="R26" s="5">
         <v>0.19900000000000001</v>
       </c>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B27" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="7">
+      <c r="B27" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="5">
         <v>0.13300000000000001</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="5">
         <v>0.13</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="5">
         <v>0.127</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="5">
         <v>0.125</v>
       </c>
-      <c r="H27" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I27" s="7">
+      <c r="H27" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I27" s="5">
         <v>0.23300000000000001</v>
       </c>
-      <c r="J27" s="7">
+      <c r="J27" s="5">
         <v>0.23100000000000001</v>
       </c>
-      <c r="K27" s="7">
+      <c r="K27" s="5">
         <v>0.22</v>
       </c>
-      <c r="L27" s="7">
+      <c r="L27" s="5">
         <v>0.20499999999999999</v>
       </c>
-      <c r="N27" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="O27" s="7">
+      <c r="N27" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O27" s="5">
         <v>0.39</v>
       </c>
-      <c r="P27" s="7">
+      <c r="P27" s="5">
         <v>0.32900000000000001</v>
       </c>
-      <c r="Q27" s="7">
+      <c r="Q27" s="5">
         <v>0.28499999999999998</v>
       </c>
-      <c r="R27" s="7">
+      <c r="R27" s="5">
         <v>0.253</v>
       </c>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -49589,8 +50105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:R27"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="T30" sqref="T30"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21:L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -49603,794 +50119,1130 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="H2" s="12" t="s">
+      <c r="B2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="H2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="N2" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="N2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="5">
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4">
         <v>100</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>200</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>300</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>400</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="5">
+      <c r="H3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="4">
         <v>100</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="4">
         <v>200</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="4">
         <v>300</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="4">
         <v>400</v>
       </c>
-      <c r="N3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="O3" s="5">
+      <c r="N3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="4">
         <v>100</v>
       </c>
-      <c r="P3" s="5">
+      <c r="P3" s="4">
         <v>200</v>
       </c>
-      <c r="Q3" s="5">
+      <c r="Q3" s="4">
         <v>300</v>
       </c>
-      <c r="R3" s="5">
+      <c r="R3" s="4">
         <v>400</v>
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B4" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="15"/>
-      <c r="H4" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="15"/>
-      <c r="N4" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="15"/>
+      <c r="B4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="13"/>
+      <c r="H4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="13"/>
+      <c r="N4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="13"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="H5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="6">
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1.9E-2</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1.9E-2</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1.9E-2</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1.9E-2</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="5">
         <v>0.26300000000000001</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="5">
         <v>0.26500000000000001</v>
       </c>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="N5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="O5" s="6">
+      <c r="K5" s="5">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O5" s="5">
         <v>0.22900000000000001</v>
       </c>
-      <c r="P5" s="6">
+      <c r="P5" s="5">
         <v>0.22900000000000001</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="Q5" s="5">
         <v>0.22900000000000001</v>
       </c>
-      <c r="R5" s="6">
+      <c r="R5" s="5">
         <v>0.22900000000000001</v>
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="H6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="6">
+      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1.9E-2</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1.9E-2</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1.9E-2</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1.9E-2</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="5">
         <v>0.26400000000000001</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="5">
         <v>0.26600000000000001</v>
       </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="N6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="O6" s="6">
+      <c r="K6" s="5">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" s="5">
         <v>0.22900000000000001</v>
       </c>
-      <c r="P6" s="6">
+      <c r="P6" s="5">
         <v>0.22600000000000001</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="Q6" s="5">
         <v>0.22900000000000001</v>
       </c>
-      <c r="R6" s="6">
+      <c r="R6" s="5">
         <v>0.22900000000000001</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="H7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="6">
+      <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1.9E-2</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1.9E-2</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1.9E-2</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1.9E-2</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="5">
         <v>0.26400000000000001</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="5">
         <v>0.26600000000000001</v>
       </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="N7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="O7" s="6">
+      <c r="K7" s="5">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O7" s="5">
         <v>0.22800000000000001</v>
       </c>
-      <c r="P7" s="6">
+      <c r="P7" s="5">
         <v>0.22900000000000001</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="Q7" s="5">
         <v>0.22900000000000001</v>
       </c>
-      <c r="R7" s="6">
+      <c r="R7" s="5">
         <v>0.22900000000000001</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="H8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="6">
+      <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1.9E-2</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1.9E-2</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1.9E-2</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1.9E-2</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="5">
         <v>0.26300000000000001</v>
       </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="N8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="O8" s="6">
+      <c r="J8" s="5">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="L8" s="5">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O8" s="5">
         <v>0.22900000000000001</v>
       </c>
-      <c r="P8" s="6">
+      <c r="P8" s="5">
         <v>0.22900000000000001</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="Q8" s="5">
         <v>0.22900000000000001</v>
       </c>
-      <c r="R8" s="6">
+      <c r="R8" s="5">
         <v>0.22900000000000001</v>
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="H9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="6">
+      <c r="B9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1.9E-2</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1.9E-2</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1.9E-2</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1.9E-2</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="5">
         <v>0.26600000000000001</v>
       </c>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="N9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="O9" s="6">
+      <c r="J9" s="5">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="L9" s="5">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O9" s="5">
         <v>0.224</v>
       </c>
-      <c r="P9" s="6">
+      <c r="P9" s="5">
         <v>0.22900000000000001</v>
       </c>
-      <c r="Q9" s="6">
+      <c r="Q9" s="5">
         <v>0.22800000000000001</v>
       </c>
-      <c r="R9" s="6">
+      <c r="R9" s="5">
         <v>0.22900000000000001</v>
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="H10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="N10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
+      <c r="B10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1.9E-2</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1.9E-2</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1.9E-2</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1.9E-2</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="L10" s="5">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" s="5">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="P10" s="5">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="R10" s="5">
+        <v>0.20100000000000001</v>
+      </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="H11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="N11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
+      <c r="B11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1.9E-2</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1.9E-2</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1.9E-2</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1.9E-2</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="L11" s="5">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O11" s="5">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="P11" s="5">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="R11" s="5">
+        <v>0.46300000000000002</v>
+      </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B12" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="15"/>
-      <c r="H12" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="15"/>
-      <c r="N12" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="15"/>
+      <c r="B12" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="13"/>
+      <c r="H12" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="13"/>
+      <c r="N12" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="13"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="H13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" s="6">
+      <c r="B13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="5">
         <v>0.41099999999999998</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="5">
         <v>0.41399999999999998</v>
       </c>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="N13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="O13" s="6">
+      <c r="K13" s="5">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="L13" s="5">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O13" s="5">
         <v>0.122</v>
       </c>
-      <c r="P13" s="6">
+      <c r="P13" s="5">
         <v>0.122</v>
       </c>
-      <c r="Q13" s="6">
+      <c r="Q13" s="5">
         <v>0.122</v>
       </c>
-      <c r="R13" s="6">
+      <c r="R13" s="5">
         <v>0.122</v>
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="H14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="6">
+      <c r="B14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.186</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="5">
         <v>0.39800000000000002</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="5">
         <v>0.38900000000000001</v>
       </c>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="N14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="O14" s="6">
+      <c r="K14" s="5">
+        <v>0.372</v>
+      </c>
+      <c r="L14" s="5">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O14" s="5">
         <v>0.11700000000000001</v>
       </c>
-      <c r="P14" s="6">
+      <c r="P14" s="5">
         <v>0.112</v>
       </c>
-      <c r="Q14" s="6">
+      <c r="Q14" s="5">
         <v>0.11</v>
       </c>
-      <c r="R14" s="6">
+      <c r="R14" s="5">
         <v>0.106</v>
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="H15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="6">
+      <c r="B15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0.157</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="5">
         <v>0.38300000000000001</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="5">
         <v>0.36399999999999999</v>
       </c>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="N15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="O15" s="6">
+      <c r="K15" s="5">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="L15" s="5">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O15" s="5">
         <v>0.112</v>
       </c>
-      <c r="P15" s="6">
+      <c r="P15" s="5">
         <v>0.106</v>
       </c>
-      <c r="Q15" s="6">
+      <c r="Q15" s="5">
         <v>0.1</v>
       </c>
-      <c r="R15" s="6">
+      <c r="R15" s="5">
         <v>9.4E-2</v>
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="H16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" s="6">
+      <c r="B16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0.157</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="5">
         <v>0.36899999999999999</v>
       </c>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="N16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="O16" s="6">
+      <c r="J16" s="5">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="K16" s="5">
+        <v>0.315</v>
+      </c>
+      <c r="L16" s="5">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O16" s="5">
         <v>0.11</v>
       </c>
-      <c r="P16" s="6">
+      <c r="P16" s="5">
         <v>0.1</v>
       </c>
-      <c r="Q16" s="6">
+      <c r="Q16" s="5">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="R16" s="6">
+      <c r="R16" s="5">
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="H17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="6">
+      <c r="B17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0.129</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="5">
         <v>0.36199999999999999</v>
       </c>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="N17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="O17" s="6">
+      <c r="J17" s="5">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="K17" s="5">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="L17" s="5">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O17" s="5">
         <v>0.104</v>
       </c>
-      <c r="P17" s="6">
+      <c r="P17" s="5">
         <v>9.4E-2</v>
       </c>
-      <c r="Q17" s="6">
+      <c r="Q17" s="5">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="R17" s="6">
+      <c r="R17" s="5">
         <v>7.8E-2</v>
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B18" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="H18" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="N18" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
+      <c r="B18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0.151</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0.126</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0.108</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0.106</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="5">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="J18" s="5">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="K18" s="5">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="L18" s="5">
+        <v>0.214</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O18" s="5">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="P18" s="5">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="Q18" s="5">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="R18" s="5">
+        <v>6.5000000000000002E-2</v>
+      </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="H19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="N19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
+      <c r="B19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0.157</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0.153</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" s="5">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="J19" s="5">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="K19" s="5">
+        <v>0.34</v>
+      </c>
+      <c r="L19" s="5">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O19" s="5">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="P19" s="5">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="R19" s="5">
+        <v>6.4000000000000001E-2</v>
+      </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B20" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="15"/>
-      <c r="H20" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="15"/>
-      <c r="N20" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="15"/>
+      <c r="B20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="13"/>
+      <c r="H20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="13"/>
+      <c r="N20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="13"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B21" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="H21" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I21" s="6">
+      <c r="B21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="5">
+        <v>3.5400000000000001E-2</v>
+      </c>
+      <c r="D21" s="5">
+        <v>3.5400000000000001E-2</v>
+      </c>
+      <c r="E21" s="5">
+        <v>3.5400000000000001E-2</v>
+      </c>
+      <c r="F21" s="5">
+        <v>3.5400000000000001E-2</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="5">
         <v>0.32100000000000001</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J21" s="5">
         <v>0.32300000000000001</v>
       </c>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="N21" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="O21" s="6">
+      <c r="K21" s="5">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="L21" s="5">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O21" s="5">
         <v>0.157</v>
       </c>
-      <c r="P21" s="6">
+      <c r="P21" s="5">
         <v>0.157</v>
       </c>
-      <c r="Q21" s="6">
+      <c r="Q21" s="5">
         <v>0.157</v>
       </c>
-      <c r="R21" s="6">
+      <c r="R21" s="5">
         <v>0.157</v>
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B22" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="H22" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I22" s="6">
+      <c r="B22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="5">
+        <v>3.5299999999999998E-2</v>
+      </c>
+      <c r="D22" s="5">
+        <v>3.5200000000000002E-2</v>
+      </c>
+      <c r="E22" s="5">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="F22" s="5">
+        <v>3.49E-2</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="5">
         <v>0.317</v>
       </c>
-      <c r="J22" s="6">
+      <c r="J22" s="5">
         <v>0.315</v>
       </c>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="N22" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="O22" s="6">
+      <c r="K22" s="5">
+        <v>0.313</v>
+      </c>
+      <c r="L22" s="5">
+        <v>0.309</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O22" s="5">
         <v>0.153</v>
       </c>
-      <c r="P22" s="6">
+      <c r="P22" s="5">
         <v>0.14699999999999999</v>
       </c>
-      <c r="Q22" s="6">
+      <c r="Q22" s="5">
         <v>0.14599999999999999</v>
       </c>
-      <c r="R22" s="6">
+      <c r="R22" s="5">
         <v>0.14299999999999999</v>
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B23" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="H23" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I23" s="6">
+      <c r="B23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="5">
+        <v>3.5200000000000002E-2</v>
+      </c>
+      <c r="D23" s="5">
+        <v>3.49E-2</v>
+      </c>
+      <c r="E23" s="5">
+        <v>3.4599999999999999E-2</v>
+      </c>
+      <c r="F23" s="5">
+        <v>3.44E-2</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="5">
         <v>0.312</v>
       </c>
-      <c r="J23" s="6">
+      <c r="J23" s="5">
         <v>0.307</v>
       </c>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="N23" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="O23" s="6">
+      <c r="K23" s="5">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="L23" s="5">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O23" s="5">
         <v>0.14799999999999999</v>
       </c>
-      <c r="P23" s="6">
+      <c r="P23" s="5">
         <v>0.14299999999999999</v>
       </c>
-      <c r="Q23" s="6">
+      <c r="Q23" s="5">
         <v>0.13700000000000001</v>
       </c>
-      <c r="R23" s="6">
+      <c r="R23" s="5">
         <v>0.13100000000000001</v>
       </c>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B24" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="H24" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I24" s="6">
+      <c r="B24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="5">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="D24" s="5">
+        <v>3.4599999999999999E-2</v>
+      </c>
+      <c r="E24" s="5">
+        <v>3.4299999999999997E-2</v>
+      </c>
+      <c r="F24" s="5">
+        <v>3.39E-2</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="5">
         <v>0.307</v>
       </c>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="N24" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="O24" s="6">
+      <c r="J24" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="K24" s="5">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="L24" s="5">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O24" s="5">
         <v>0.14599999999999999</v>
       </c>
-      <c r="P24" s="6">
+      <c r="P24" s="5">
         <v>0.13700000000000001</v>
       </c>
-      <c r="Q24" s="6">
+      <c r="Q24" s="5">
         <v>0.128</v>
       </c>
-      <c r="R24" s="6">
+      <c r="R24" s="5">
         <v>0.121</v>
       </c>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="H25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I25" s="6">
+      <c r="B25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="5">
+        <v>3.4700000000000002E-2</v>
+      </c>
+      <c r="D25" s="5">
+        <v>3.44E-2</v>
+      </c>
+      <c r="E25" s="5">
+        <v>3.3399999999999999E-2</v>
+      </c>
+      <c r="F25" s="5">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="5">
         <v>0.30599999999999999</v>
       </c>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="N25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="O25" s="6">
+      <c r="J25" s="5">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="K25" s="5">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L25" s="5">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O25" s="5">
         <v>0.13900000000000001</v>
       </c>
-      <c r="P25" s="6">
+      <c r="P25" s="5">
         <v>0.13100000000000001</v>
       </c>
-      <c r="Q25" s="6">
+      <c r="Q25" s="5">
         <v>0.12</v>
       </c>
-      <c r="R25" s="6">
+      <c r="R25" s="5">
         <v>0.113</v>
       </c>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B26" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="H26" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="N26" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
+      <c r="B26" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="5">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="D26" s="5">
+        <v>3.32E-2</v>
+      </c>
+      <c r="E26" s="5">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="F26" s="5">
+        <v>3.2399999999999998E-2</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I26" s="5">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="J26" s="5">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="K26" s="5">
+        <v>0.252</v>
+      </c>
+      <c r="L26" s="5">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O26" s="5">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="P26" s="5">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="Q26" s="5">
+        <v>0.107</v>
+      </c>
+      <c r="R26" s="5">
+        <v>9.7000000000000003E-2</v>
+      </c>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B27" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="H27" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="N27" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6"/>
+      <c r="B27" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="5">
+        <v>3.5299999999999998E-2</v>
+      </c>
+      <c r="D27" s="5">
+        <v>3.5200000000000002E-2</v>
+      </c>
+      <c r="E27" s="5">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="F27" s="5">
+        <v>3.44E-2</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I27" s="5">
+        <v>0.312</v>
+      </c>
+      <c r="J27" s="5">
+        <v>0.31</v>
+      </c>
+      <c r="K27" s="5">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="L27" s="5">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O27" s="5">
+        <v>0.152</v>
+      </c>
+      <c r="P27" s="5">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="Q27" s="5">
+        <v>0.115</v>
+      </c>
+      <c r="R27" s="5">
+        <v>0.104</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -50415,25 +51267,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:B40"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A36" workbookViewId="0">
       <selection activeCell="N62" sqref="N62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="2:2" ht="24" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
-        <v>17</v>
+      <c r="B2" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="24" x14ac:dyDescent="0.3">
-      <c r="B21" s="9" t="s">
-        <v>18</v>
+      <c r="B21" s="7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="2:2" ht="24" x14ac:dyDescent="0.3">
-      <c r="B40" s="9" t="s">
-        <v>19</v>
+      <c r="B40" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -50454,18 +51306,18 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="2:2" ht="24" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
-        <v>17</v>
+      <c r="B2" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="24" x14ac:dyDescent="0.3">
-      <c r="B21" s="9" t="s">
-        <v>18</v>
+      <c r="B21" s="7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="2:2" ht="24" x14ac:dyDescent="0.3">
-      <c r="B40" s="9" t="s">
-        <v>19</v>
+      <c r="B40" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -50486,18 +51338,18 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="2:2" ht="24" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
-        <v>17</v>
+      <c r="B2" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="24" x14ac:dyDescent="0.3">
-      <c r="B21" s="9" t="s">
-        <v>18</v>
+      <c r="B21" s="7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="2:2" ht="24" x14ac:dyDescent="0.3">
-      <c r="B40" s="9" t="s">
-        <v>19</v>
+      <c r="B40" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -50518,18 +51370,18 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="2:2" ht="24" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
-        <v>17</v>
+      <c r="B2" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="24" x14ac:dyDescent="0.3">
-      <c r="B21" s="9" t="s">
-        <v>18</v>
+      <c r="B21" s="7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="2:2" ht="24" x14ac:dyDescent="0.3">
-      <c r="B40" s="9" t="s">
-        <v>19</v>
+      <c r="B40" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/resources/Experiments.xlsx
+++ b/resources/Experiments.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69EB5FED-D5D7-884F-BCA1-8D00C160194B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31BDE940-58EC-6149-900E-287034C5DD0C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="24720" windowHeight="14940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Progress" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="26">
   <si>
     <t>ALPHA</t>
   </si>
@@ -98,6 +98,15 @@
   <si>
     <t>sockdef</t>
   </si>
+  <si>
+    <t>Specgreedy</t>
+  </si>
+  <si>
+    <t>sg</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
 </sst>
 </file>
 
@@ -120,7 +129,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -130,6 +139,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -198,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -221,6 +236,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -234,6 +255,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -46402,10 +46426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:G11"/>
+  <dimension ref="B2:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -46432,7 +46456,7 @@
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -46452,7 +46476,7 @@
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B4" s="9"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
@@ -46470,8 +46494,8 @@
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="9"/>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -46488,11 +46512,9 @@
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="9" t="s">
-        <v>7</v>
-      </c>
+      <c r="B6" s="11"/>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>20</v>
@@ -46500,17 +46522,19 @@
       <c r="E6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>20</v>
+      <c r="F6" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="9"/>
+      <c r="B7" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="C7" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>20</v>
@@ -46526,9 +46550,9 @@
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="9"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>20</v>
@@ -46544,11 +46568,9 @@
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>9</v>
+      <c r="B9" s="11"/>
+      <c r="C9" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>20</v>
@@ -46564,27 +46586,29 @@
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B10" s="9"/>
-      <c r="C10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>20</v>
+      <c r="B10" s="11"/>
+      <c r="C10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B11" s="9"/>
+      <c r="B11" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="C11" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>20</v>
@@ -46597,13 +46621,67 @@
       </c>
       <c r="G11" s="1" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="11"/>
+      <c r="C12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B13" s="11"/>
+      <c r="C13" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="11"/>
+      <c r="C14" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B7:B10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -46611,10 +46689,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:R27"/>
+  <dimension ref="B2:X27"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:L11"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1:X1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -46624,32 +46702,41 @@
     <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4.5" customWidth="1"/>
     <col min="14" max="14" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.5" customWidth="1"/>
+    <col min="20" max="20" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="H2" s="10" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="H2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="N2" s="10" t="s">
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="N2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="T2" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
@@ -46695,31 +46782,53 @@
       <c r="R3" s="4">
         <v>400</v>
       </c>
+      <c r="T3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="U3" s="9">
+        <v>100</v>
+      </c>
+      <c r="V3" s="9">
+        <v>200</v>
+      </c>
+      <c r="W3" s="9">
+        <v>300</v>
+      </c>
+      <c r="X3" s="9">
+        <v>400</v>
+      </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B4" s="11" t="s">
+    <row r="4" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13"/>
-      <c r="H4" s="11" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="15"/>
+      <c r="H4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="13"/>
-      <c r="N4" s="11" t="s">
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="15"/>
+      <c r="N4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="13"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="15"/>
+      <c r="T4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="15"/>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
@@ -46765,8 +46874,23 @@
       <c r="R5" s="3">
         <v>0.36399999999999999</v>
       </c>
+      <c r="T5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="U5" s="3">
+        <v>0.182</v>
+      </c>
+      <c r="V5" s="3">
+        <v>0.182</v>
+      </c>
+      <c r="W5" s="3">
+        <v>0.182</v>
+      </c>
+      <c r="X5" s="3">
+        <v>0.182</v>
+      </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
@@ -46812,8 +46936,23 @@
       <c r="R6" s="3">
         <v>0.36399999999999999</v>
       </c>
+      <c r="T6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="U6" s="3">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="V6" s="3">
+        <v>0.182</v>
+      </c>
+      <c r="W6" s="3">
+        <v>0.182</v>
+      </c>
+      <c r="X6" s="3">
+        <v>0.182</v>
+      </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
@@ -46859,8 +46998,23 @@
       <c r="R7" s="3">
         <v>0.36399999999999999</v>
       </c>
+      <c r="T7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="U7" s="3">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="V7" s="3">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="W7" s="3">
+        <v>0.182</v>
+      </c>
+      <c r="X7" s="3">
+        <v>0.182</v>
+      </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
@@ -46906,8 +47060,23 @@
       <c r="R8" s="3">
         <v>0.36599999999999999</v>
       </c>
+      <c r="T8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="W8" s="3">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="X8" s="3">
+        <v>0.17899999999999999</v>
+      </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>15</v>
       </c>
@@ -46953,8 +47122,23 @@
       <c r="R9" s="3">
         <v>0.37</v>
       </c>
+      <c r="T9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="U9" s="3">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="V9" s="3">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="W9" s="3">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="X9" s="3">
+        <v>0.17299999999999999</v>
+      </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
@@ -47000,8 +47184,15 @@
       <c r="R10" s="5">
         <v>0.40100000000000002</v>
       </c>
+      <c r="T10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
         <v>22</v>
       </c>
@@ -47047,31 +47238,45 @@
       <c r="R11" s="5">
         <v>0.30599999999999999</v>
       </c>
+      <c r="T11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B12" s="11" t="s">
+    <row r="12" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B12" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13"/>
-      <c r="H12" s="11" t="s">
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="15"/>
+      <c r="H12" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="13"/>
-      <c r="N12" s="11" t="s">
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="15"/>
+      <c r="N12" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="13"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="15"/>
+      <c r="T12" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="15"/>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
         <v>11</v>
       </c>
@@ -47117,8 +47322,23 @@
       <c r="R13" s="3">
         <v>0.20899999999999999</v>
       </c>
+      <c r="T13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0.19500000000000001</v>
+      </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
         <v>12</v>
       </c>
@@ -47164,8 +47384,23 @@
       <c r="R14" s="3">
         <v>0.128</v>
       </c>
+      <c r="T14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0.11899999999999999</v>
+      </c>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
         <v>13</v>
       </c>
@@ -47211,8 +47446,23 @@
       <c r="R15" s="3">
         <v>9.1999999999999998E-2</v>
       </c>
+      <c r="T15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="X15" s="3">
+        <v>8.5999999999999993E-2</v>
+      </c>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
         <v>14</v>
       </c>
@@ -47258,8 +47508,23 @@
       <c r="R16" s="3">
         <v>7.1999999999999995E-2</v>
       </c>
+      <c r="T16" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="U16" s="3">
+        <v>0.125</v>
+      </c>
+      <c r="V16" s="3">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="W16" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="X16" s="3">
+        <v>6.6000000000000003E-2</v>
+      </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
         <v>15</v>
       </c>
@@ -47305,8 +47570,23 @@
       <c r="R17" s="3">
         <v>5.8999999999999997E-2</v>
       </c>
+      <c r="T17" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="U17" s="3">
+        <v>0.111</v>
+      </c>
+      <c r="V17" s="3">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="W17" s="3">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="X17" s="3">
+        <v>5.1999999999999998E-2</v>
+      </c>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B18" s="4" t="s">
         <v>19</v>
       </c>
@@ -47352,8 +47632,15 @@
       <c r="R18" s="5">
         <v>0.04</v>
       </c>
+      <c r="T18" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B19" s="4" t="s">
         <v>22</v>
       </c>
@@ -47399,31 +47686,45 @@
       <c r="R19" s="5">
         <v>9.8000000000000004E-2</v>
       </c>
+      <c r="T19" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B20" s="11" t="s">
+    <row r="20" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B20" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="13"/>
-      <c r="H20" s="11" t="s">
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="15"/>
+      <c r="H20" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="13"/>
-      <c r="N20" s="11" t="s">
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="15"/>
+      <c r="N20" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="13"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="15"/>
+      <c r="T20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="U20" s="14"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="15"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
         <v>11</v>
       </c>
@@ -47469,8 +47770,23 @@
       <c r="R21" s="3">
         <v>0.26600000000000001</v>
       </c>
+      <c r="T21" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="U21" s="3">
+        <v>0.189</v>
+      </c>
+      <c r="V21" s="3">
+        <v>0.189</v>
+      </c>
+      <c r="W21" s="3">
+        <v>0.189</v>
+      </c>
+      <c r="X21" s="3">
+        <v>0.189</v>
+      </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B22" s="4" t="s">
         <v>12</v>
       </c>
@@ -47516,8 +47832,23 @@
       <c r="R22" s="3">
         <v>0.189</v>
       </c>
+      <c r="T22" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0.153</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0.14399999999999999</v>
+      </c>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B23" s="4" t="s">
         <v>13</v>
       </c>
@@ -47563,8 +47894,23 @@
       <c r="R23" s="3">
         <v>0.14699999999999999</v>
       </c>
+      <c r="T23" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="U23" s="3">
+        <v>0.158</v>
+      </c>
+      <c r="V23" s="3">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="W23" s="3">
+        <v>0.129</v>
+      </c>
+      <c r="X23" s="3">
+        <v>0.11700000000000001</v>
+      </c>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B24" s="4" t="s">
         <v>14</v>
       </c>
@@ -47610,8 +47956,23 @@
       <c r="R24" s="3">
         <v>0.12</v>
       </c>
+      <c r="T24" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0.125</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0.111</v>
+      </c>
+      <c r="X24" s="3">
+        <v>9.6000000000000002E-2</v>
+      </c>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B25" s="4" t="s">
         <v>15</v>
       </c>
@@ -47657,8 +48018,23 @@
       <c r="R25" s="3">
         <v>0.10199999999999999</v>
       </c>
+      <c r="T25" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0.113</v>
+      </c>
+      <c r="W25" s="3">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B26" s="4" t="s">
         <v>19</v>
       </c>
@@ -47704,8 +48080,15 @@
       <c r="R26" s="5">
         <v>7.1999999999999995E-2</v>
       </c>
+      <c r="T26" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B27" s="4" t="s">
         <v>22</v>
       </c>
@@ -47751,13 +48134,16 @@
       <c r="R27" s="5">
         <v>0.14799999999999999</v>
       </c>
+      <c r="T27" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="N4:R4"/>
-    <mergeCell ref="N12:R12"/>
-    <mergeCell ref="N20:R20"/>
+  <mergeCells count="16">
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B12:F12"/>
@@ -47766,6 +48152,14 @@
     <mergeCell ref="H4:L4"/>
     <mergeCell ref="H12:L12"/>
     <mergeCell ref="H20:L20"/>
+    <mergeCell ref="T2:X2"/>
+    <mergeCell ref="T4:X4"/>
+    <mergeCell ref="T12:X12"/>
+    <mergeCell ref="T20:X20"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="N4:R4"/>
+    <mergeCell ref="N12:R12"/>
+    <mergeCell ref="N20:R20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -47773,10 +48167,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B2:R27"/>
+  <dimension ref="B2:X27"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -47786,32 +48180,41 @@
     <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4.5" customWidth="1"/>
     <col min="14" max="14" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.5" customWidth="1"/>
+    <col min="20" max="20" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="H2" s="10" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="H2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="N2" s="10" t="s">
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="N2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="T2" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
@@ -47857,31 +48260,53 @@
       <c r="R3" s="4">
         <v>400</v>
       </c>
+      <c r="T3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="U3" s="9">
+        <v>100</v>
+      </c>
+      <c r="V3" s="9">
+        <v>200</v>
+      </c>
+      <c r="W3" s="9">
+        <v>300</v>
+      </c>
+      <c r="X3" s="9">
+        <v>400</v>
+      </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B4" s="11" t="s">
+    <row r="4" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13"/>
-      <c r="H4" s="11" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="15"/>
+      <c r="H4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="13"/>
-      <c r="N4" s="11" t="s">
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="15"/>
+      <c r="N4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="13"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="15"/>
+      <c r="T4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="15"/>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
@@ -47927,8 +48352,23 @@
       <c r="R5" s="5">
         <v>0.64500000000000002</v>
       </c>
+      <c r="T5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="U5" s="3">
+        <v>0.182</v>
+      </c>
+      <c r="V5" s="3">
+        <v>0.182</v>
+      </c>
+      <c r="W5" s="3">
+        <v>0.182</v>
+      </c>
+      <c r="X5" s="3">
+        <v>0.182</v>
+      </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
@@ -47974,8 +48414,23 @@
       <c r="R6" s="5">
         <v>0.64500000000000002</v>
       </c>
+      <c r="T6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="U6" s="3">
+        <v>0.182</v>
+      </c>
+      <c r="V6" s="3">
+        <v>0.182</v>
+      </c>
+      <c r="W6" s="3">
+        <v>0.182</v>
+      </c>
+      <c r="X6" s="3">
+        <v>0.182</v>
+      </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
@@ -48021,8 +48476,23 @@
       <c r="R7" s="5">
         <v>0.64500000000000002</v>
       </c>
+      <c r="T7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="U7" s="3">
+        <v>0.182</v>
+      </c>
+      <c r="V7" s="3">
+        <v>0.182</v>
+      </c>
+      <c r="W7" s="3">
+        <v>0.182</v>
+      </c>
+      <c r="X7" s="3">
+        <v>0.182</v>
+      </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
@@ -48068,8 +48538,23 @@
       <c r="R8" s="5">
         <v>0.64500000000000002</v>
       </c>
+      <c r="T8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0.182</v>
+      </c>
+      <c r="W8" s="3">
+        <v>0.182</v>
+      </c>
+      <c r="X8" s="3">
+        <v>0.182</v>
+      </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>15</v>
       </c>
@@ -48115,8 +48600,23 @@
       <c r="R9" s="5">
         <v>0.64500000000000002</v>
       </c>
+      <c r="T9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="U9" s="3">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="V9" s="3">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="W9" s="3">
+        <v>0.182</v>
+      </c>
+      <c r="X9" s="3">
+        <v>0.182</v>
+      </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
@@ -48162,8 +48662,15 @@
       <c r="R10" s="5">
         <v>0.80900000000000005</v>
       </c>
+      <c r="T10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
         <v>22</v>
       </c>
@@ -48209,31 +48716,45 @@
       <c r="R11" s="5">
         <v>0.47499999999999998</v>
       </c>
+      <c r="T11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B12" s="11" t="s">
+    <row r="12" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B12" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13"/>
-      <c r="H12" s="11" t="s">
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="15"/>
+      <c r="H12" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="13"/>
-      <c r="N12" s="11" t="s">
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="15"/>
+      <c r="N12" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="13"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="15"/>
+      <c r="T12" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="15"/>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
         <v>11</v>
       </c>
@@ -48279,8 +48800,23 @@
       <c r="R13" s="5">
         <v>0.371</v>
       </c>
+      <c r="T13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="U13" s="3">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="V13" s="3">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="W13" s="3">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="X13" s="3">
+        <v>9.7000000000000003E-2</v>
+      </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
         <v>12</v>
       </c>
@@ -48326,8 +48862,23 @@
       <c r="R14" s="5">
         <v>0.25700000000000001</v>
       </c>
+      <c r="T14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="U14" s="3">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="W14" s="3">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="X14" s="3">
+        <v>6.8000000000000005E-2</v>
+      </c>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
         <v>13</v>
       </c>
@@ -48373,8 +48924,23 @@
       <c r="R15" s="5">
         <v>0.19600000000000001</v>
       </c>
+      <c r="T15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="V15" s="3">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="W15" s="3">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="X15" s="3">
+        <v>5.1999999999999998E-2</v>
+      </c>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
         <v>14</v>
       </c>
@@ -48420,8 +48986,23 @@
       <c r="R16" s="5">
         <v>0.159</v>
       </c>
+      <c r="T16" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="U16" s="3">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="V16" s="3">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="W16" s="3">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="X16" s="3">
+        <v>4.2000000000000003E-2</v>
+      </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
         <v>15</v>
       </c>
@@ -48467,8 +49048,23 @@
       <c r="R17" s="5">
         <v>0.13300000000000001</v>
       </c>
+      <c r="T17" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="U17" s="3">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="V17" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="W17" s="3">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="X17" s="3">
+        <v>3.5999999999999997E-2</v>
+      </c>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B18" s="4" t="s">
         <v>19</v>
       </c>
@@ -48514,8 +49110,15 @@
       <c r="R18" s="5">
         <v>0.09</v>
       </c>
+      <c r="T18" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B19" s="4" t="s">
         <v>22</v>
       </c>
@@ -48561,31 +49164,45 @@
       <c r="R19" s="5">
         <v>0.2</v>
       </c>
+      <c r="T19" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B20" s="11" t="s">
+    <row r="20" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B20" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="13"/>
-      <c r="H20" s="11" t="s">
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="15"/>
+      <c r="H20" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="13"/>
-      <c r="N20" s="11" t="s">
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="15"/>
+      <c r="N20" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="13"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="15"/>
+      <c r="T20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="U20" s="14"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="15"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
         <v>11</v>
       </c>
@@ -48631,8 +49248,23 @@
       <c r="R21" s="5">
         <v>0.47099999999999997</v>
       </c>
+      <c r="T21" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="U21" s="3">
+        <v>0.126</v>
+      </c>
+      <c r="V21" s="3">
+        <v>0.126</v>
+      </c>
+      <c r="W21" s="3">
+        <v>0.126</v>
+      </c>
+      <c r="X21" s="3">
+        <v>0.126</v>
+      </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B22" s="4" t="s">
         <v>12</v>
       </c>
@@ -48678,8 +49310,23 @@
       <c r="R22" s="5">
         <v>0.36699999999999999</v>
       </c>
+      <c r="T22" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0.111</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0.104</v>
+      </c>
+      <c r="X22" s="3">
+        <v>9.8000000000000004E-2</v>
+      </c>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B23" s="4" t="s">
         <v>13</v>
       </c>
@@ -48725,8 +49372,23 @@
       <c r="R23" s="5">
         <v>0.30099999999999999</v>
       </c>
+      <c r="T23" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="U23" s="3">
+        <v>0.111</v>
+      </c>
+      <c r="V23" s="3">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="W23" s="3">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="X23" s="3">
+        <v>8.1000000000000003E-2</v>
+      </c>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B24" s="4" t="s">
         <v>14</v>
       </c>
@@ -48772,8 +49434,23 @@
       <c r="R24" s="5">
         <v>0.255</v>
       </c>
+      <c r="T24" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="V24" s="3">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="W24" s="3">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="X24" s="3">
+        <v>6.8000000000000005E-2</v>
+      </c>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B25" s="4" t="s">
         <v>15</v>
       </c>
@@ -48819,8 +49496,23 @@
       <c r="R25" s="5">
         <v>0.221</v>
       </c>
+      <c r="T25" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="U25" s="3">
+        <v>9.4E-2</v>
+      </c>
+      <c r="V25" s="3">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="W25" s="3">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="X25" s="3">
+        <v>5.8999999999999997E-2</v>
+      </c>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B26" s="4" t="s">
         <v>19</v>
       </c>
@@ -48866,8 +49558,15 @@
       <c r="R26" s="5">
         <v>0.16300000000000001</v>
       </c>
+      <c r="T26" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B27" s="4" t="s">
         <v>22</v>
       </c>
@@ -48913,21 +49612,32 @@
       <c r="R27" s="5">
         <v>0.28100000000000003</v>
       </c>
+      <c r="T27" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="16">
+    <mergeCell ref="T2:X2"/>
+    <mergeCell ref="T4:X4"/>
+    <mergeCell ref="T12:X12"/>
+    <mergeCell ref="T20:X20"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="N4:R4"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="H12:L12"/>
     <mergeCell ref="N12:R12"/>
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="H20:L20"/>
     <mergeCell ref="N20:R20"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="N4:R4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -48951,27 +49661,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="H2" s="10" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="H2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="N2" s="10" t="s">
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="N2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
@@ -49021,27 +49731,27 @@
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13"/>
-      <c r="H4" s="11" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="15"/>
+      <c r="H4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="13"/>
-      <c r="N4" s="11" t="s">
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="15"/>
+      <c r="N4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="13"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="15"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -49373,27 +50083,27 @@
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13"/>
-      <c r="H12" s="11" t="s">
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="15"/>
+      <c r="H12" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="13"/>
-      <c r="N12" s="11" t="s">
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="15"/>
+      <c r="N12" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="13"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="15"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
@@ -49725,27 +50435,27 @@
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="13"/>
-      <c r="H20" s="11" t="s">
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="15"/>
+      <c r="H20" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="13"/>
-      <c r="N20" s="11" t="s">
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="15"/>
+      <c r="N20" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="13"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="15"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
@@ -50119,27 +50829,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="H2" s="10" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="H2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="N2" s="10" t="s">
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="N2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
@@ -50189,27 +50899,27 @@
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13"/>
-      <c r="H4" s="11" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="15"/>
+      <c r="H4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="13"/>
-      <c r="N4" s="11" t="s">
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="15"/>
+      <c r="N4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="13"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="15"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -50541,27 +51251,27 @@
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13"/>
-      <c r="H12" s="11" t="s">
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="15"/>
+      <c r="H12" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="13"/>
-      <c r="N12" s="11" t="s">
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="15"/>
+      <c r="N12" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="13"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="15"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
@@ -50893,27 +51603,27 @@
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="13"/>
-      <c r="H20" s="11" t="s">
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="15"/>
+      <c r="H20" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="13"/>
-      <c r="N20" s="11" t="s">
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="15"/>
+      <c r="N20" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="13"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="15"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
@@ -51267,8 +51977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:B40"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="N62" sqref="N62"/>
+    <sheetView topLeftCell="K30" workbookViewId="0">
+      <selection activeCell="AB55" sqref="AB55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
